--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_64ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_64ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4452,28 +4452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2276.651459641193</v>
+        <v>2431.881398250753</v>
       </c>
       <c r="AB2" t="n">
-        <v>3115.014965855045</v>
+        <v>3327.407416122223</v>
       </c>
       <c r="AC2" t="n">
-        <v>2817.722309464685</v>
+        <v>3009.844322373031</v>
       </c>
       <c r="AD2" t="n">
-        <v>2276651.459641193</v>
+        <v>2431881.398250753</v>
       </c>
       <c r="AE2" t="n">
-        <v>3115014.965855045</v>
+        <v>3327407.416122223</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.023827147773635e-07</v>
+        <v>1.300933047900597e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.681640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>2817722.309464685</v>
+        <v>3009844.322373031</v>
       </c>
     </row>
     <row r="3">
@@ -4558,28 +4558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1104.628035222464</v>
+        <v>1199.42448877219</v>
       </c>
       <c r="AB3" t="n">
-        <v>1511.400810540905</v>
+        <v>1641.105500412011</v>
       </c>
       <c r="AC3" t="n">
-        <v>1367.154838447241</v>
+        <v>1484.480694758725</v>
       </c>
       <c r="AD3" t="n">
-        <v>1104628.035222464</v>
+        <v>1199424.48877219</v>
       </c>
       <c r="AE3" t="n">
-        <v>1511400.810540905</v>
+        <v>1641105.500412012</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.421124397478143e-06</v>
+        <v>2.048784472022245e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.38671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1367154.838447241</v>
+        <v>1484480.694758725</v>
       </c>
     </row>
     <row r="4">
@@ -4664,28 +4664,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>902.2033597664247</v>
+        <v>988.4516968666878</v>
       </c>
       <c r="AB4" t="n">
-        <v>1234.434439235543</v>
+        <v>1352.443219064212</v>
       </c>
       <c r="AC4" t="n">
-        <v>1116.621748894519</v>
+        <v>1223.367936402703</v>
       </c>
       <c r="AD4" t="n">
-        <v>902203.3597664246</v>
+        <v>988451.6968666879</v>
       </c>
       <c r="AE4" t="n">
-        <v>1234434.439235543</v>
+        <v>1352443.219064212</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.615605845474133e-06</v>
+        <v>2.329161454823791e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.81184895833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1116621.748894519</v>
+        <v>1223367.936402703</v>
       </c>
     </row>
     <row r="5">
@@ -4770,28 +4770,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>816.344408077959</v>
+        <v>894.0447182373105</v>
       </c>
       <c r="AB5" t="n">
-        <v>1116.958433705768</v>
+        <v>1223.271425961547</v>
       </c>
       <c r="AC5" t="n">
-        <v>1010.357488453896</v>
+        <v>1106.524117940006</v>
       </c>
       <c r="AD5" t="n">
-        <v>816344.408077959</v>
+        <v>894044.7182373104</v>
       </c>
       <c r="AE5" t="n">
-        <v>1116958.433705768</v>
+        <v>1223271.425961547</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.721856391714862e-06</v>
+        <v>2.482339086330348e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.64973958333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1010357.488453896</v>
+        <v>1106524.117940006</v>
       </c>
     </row>
     <row r="6">
@@ -4876,28 +4876,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>761.8590314513142</v>
+        <v>839.474000756094</v>
       </c>
       <c r="AB6" t="n">
-        <v>1042.409137680022</v>
+        <v>1148.605362813604</v>
       </c>
       <c r="AC6" t="n">
-        <v>942.9230726102534</v>
+        <v>1038.984079064425</v>
       </c>
       <c r="AD6" t="n">
-        <v>761859.0314513142</v>
+        <v>839474.000756094</v>
       </c>
       <c r="AE6" t="n">
-        <v>1042409.137680022</v>
+        <v>1148605.362813604</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.789266667976554e-06</v>
+        <v>2.579522082769483e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.98567708333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>942923.0726102534</v>
+        <v>1038984.079064425</v>
       </c>
     </row>
     <row r="7">
@@ -4982,28 +4982,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>731.8337648736306</v>
+        <v>809.4487341784104</v>
       </c>
       <c r="AB7" t="n">
-        <v>1001.327243327161</v>
+        <v>1107.523468460743</v>
       </c>
       <c r="AC7" t="n">
-        <v>905.7619765956283</v>
+        <v>1001.8229830498</v>
       </c>
       <c r="AD7" t="n">
-        <v>731833.7648736306</v>
+        <v>809448.7341784104</v>
       </c>
       <c r="AE7" t="n">
-        <v>1001327.243327161</v>
+        <v>1107523.468460743</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.834922658408642e-06</v>
+        <v>2.645342699471334e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.5625</v>
       </c>
       <c r="AH7" t="n">
-        <v>905761.9765956283</v>
+        <v>1001822.9830498</v>
       </c>
     </row>
     <row r="8">
@@ -5088,28 +5088,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>708.3977450048083</v>
+        <v>777.3794360226556</v>
       </c>
       <c r="AB8" t="n">
-        <v>969.2610470184121</v>
+        <v>1063.644839926456</v>
       </c>
       <c r="AC8" t="n">
-        <v>876.7561330573976</v>
+        <v>962.1320692387832</v>
       </c>
       <c r="AD8" t="n">
-        <v>708397.7450048083</v>
+        <v>777379.4360226556</v>
       </c>
       <c r="AE8" t="n">
-        <v>969261.0470184122</v>
+        <v>1063644.839926456</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.868907894640299e-06</v>
+        <v>2.69433800515533e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.26302083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>876756.1330573977</v>
+        <v>962132.0692387832</v>
       </c>
     </row>
     <row r="9">
@@ -5194,28 +5194,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>692.450259599623</v>
+        <v>761.4319506174705</v>
       </c>
       <c r="AB9" t="n">
-        <v>947.440993933636</v>
+        <v>1041.82478684168</v>
       </c>
       <c r="AC9" t="n">
-        <v>857.0185552143957</v>
+        <v>942.3944913957814</v>
       </c>
       <c r="AD9" t="n">
-        <v>692450.259599623</v>
+        <v>761431.9506174705</v>
       </c>
       <c r="AE9" t="n">
-        <v>947440.993933636</v>
+        <v>1041824.78684168</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.890382082369093e-06</v>
+        <v>2.725296577428184e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.07747395833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>857018.5552143957</v>
+        <v>942394.4913957814</v>
       </c>
     </row>
     <row r="10">
@@ -5300,28 +5300,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>666.6100172220091</v>
+        <v>744.1396456722175</v>
       </c>
       <c r="AB10" t="n">
-        <v>912.0852343215477</v>
+        <v>1018.164692332932</v>
       </c>
       <c r="AC10" t="n">
-        <v>825.0370996775647</v>
+        <v>920.9924830997973</v>
       </c>
       <c r="AD10" t="n">
-        <v>666610.0172220091</v>
+        <v>744139.6456722175</v>
       </c>
       <c r="AE10" t="n">
-        <v>912085.2343215477</v>
+        <v>1018164.692332932</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.912416466299507e-06</v>
+        <v>2.757062764629895e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.89192708333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>825037.0996775647</v>
+        <v>920992.4830997973</v>
       </c>
     </row>
     <row r="11">
@@ -5406,28 +5406,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>653.1177492497271</v>
+        <v>722.1846916135952</v>
       </c>
       <c r="AB11" t="n">
-        <v>893.6245180450182</v>
+        <v>988.1249556057115</v>
       </c>
       <c r="AC11" t="n">
-        <v>808.3382482526893</v>
+        <v>893.819696684787</v>
       </c>
       <c r="AD11" t="n">
-        <v>653117.7492497271</v>
+        <v>722184.6916135952</v>
       </c>
       <c r="AE11" t="n">
-        <v>893624.5180450182</v>
+        <v>988124.9556057116</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.926888201508042e-06</v>
+        <v>2.777926150292037e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.771484375</v>
       </c>
       <c r="AH11" t="n">
-        <v>808338.2482526893</v>
+        <v>893819.696684787</v>
       </c>
     </row>
     <row r="12">
@@ -5512,28 +5512,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>639.0217543615837</v>
+        <v>708.0886967254517</v>
       </c>
       <c r="AB12" t="n">
-        <v>874.3377559676552</v>
+        <v>968.8381935283486</v>
       </c>
       <c r="AC12" t="n">
-        <v>790.892187678849</v>
+        <v>876.3736361109471</v>
       </c>
       <c r="AD12" t="n">
-        <v>639021.7543615837</v>
+        <v>708088.6967254516</v>
       </c>
       <c r="AE12" t="n">
-        <v>874337.7559676552</v>
+        <v>968838.1935283486</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.943413989455853e-06</v>
+        <v>2.80175079069332e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.63802083333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>790892.1876788491</v>
+        <v>876373.6361109471</v>
       </c>
     </row>
     <row r="13">
@@ -5618,28 +5618,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>628.6671124645778</v>
+        <v>697.7340548284458</v>
       </c>
       <c r="AB13" t="n">
-        <v>860.1700781096115</v>
+        <v>954.6705156703049</v>
       </c>
       <c r="AC13" t="n">
-        <v>778.0766531111165</v>
+        <v>863.5581015432144</v>
       </c>
       <c r="AD13" t="n">
-        <v>628667.1124645778</v>
+        <v>697734.0548284458</v>
       </c>
       <c r="AE13" t="n">
-        <v>860170.0781096115</v>
+        <v>954670.5156703049</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.95088327214413e-06</v>
+        <v>2.812518989744748e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.57942708333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>778076.6531111165</v>
+        <v>863558.1015432144</v>
       </c>
     </row>
     <row r="14">
@@ -5724,28 +5724,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>616.5472670682026</v>
+        <v>685.4436172314784</v>
       </c>
       <c r="AB14" t="n">
-        <v>843.5871709484488</v>
+        <v>937.8541967342952</v>
       </c>
       <c r="AC14" t="n">
-        <v>763.0763953351586</v>
+        <v>848.3467084846056</v>
       </c>
       <c r="AD14" t="n">
-        <v>616547.2670682026</v>
+        <v>685443.6172314783</v>
       </c>
       <c r="AE14" t="n">
-        <v>843587.1709484488</v>
+        <v>937854.1967342952</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.961060169806906e-06</v>
+        <v>2.827190660952318e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.498046875</v>
       </c>
       <c r="AH14" t="n">
-        <v>763076.3953351586</v>
+        <v>848346.7084846057</v>
       </c>
     </row>
     <row r="15">
@@ -5830,28 +5830,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>608.9685842442327</v>
+        <v>677.8649344075085</v>
       </c>
       <c r="AB15" t="n">
-        <v>833.2176827608042</v>
+        <v>927.4847085466506</v>
       </c>
       <c r="AC15" t="n">
-        <v>753.6965565464747</v>
+        <v>838.9668696959217</v>
       </c>
       <c r="AD15" t="n">
-        <v>608968.5842442327</v>
+        <v>677864.9344075085</v>
       </c>
       <c r="AE15" t="n">
-        <v>833217.6827608042</v>
+        <v>927484.7085466506</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.96712896199113e-06</v>
+        <v>2.835939822681603e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>15.44921875</v>
       </c>
       <c r="AH15" t="n">
-        <v>753696.5565464747</v>
+        <v>838966.8696959217</v>
       </c>
     </row>
     <row r="16">
@@ -5936,28 +5936,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>607.5097298826946</v>
+        <v>676.4060800459705</v>
       </c>
       <c r="AB16" t="n">
-        <v>831.2216138632358</v>
+        <v>925.4886396490822</v>
       </c>
       <c r="AC16" t="n">
-        <v>751.89098966299</v>
+        <v>837.1613028124368</v>
       </c>
       <c r="AD16" t="n">
-        <v>607509.7298826947</v>
+        <v>676406.0800459705</v>
       </c>
       <c r="AE16" t="n">
-        <v>831221.6138632358</v>
+        <v>925488.6396490822</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.96983657696563e-06</v>
+        <v>2.839843294837745e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>16</v>
+        <v>15.4296875</v>
       </c>
       <c r="AH16" t="n">
-        <v>751890.98966299</v>
+        <v>837161.3028124368</v>
       </c>
     </row>
   </sheetData>
@@ -6233,28 +6233,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1600.658939324343</v>
+        <v>1726.664359594224</v>
       </c>
       <c r="AB2" t="n">
-        <v>2190.092176872135</v>
+        <v>2362.498351852197</v>
       </c>
       <c r="AC2" t="n">
-        <v>1981.072853325134</v>
+        <v>2137.024824938685</v>
       </c>
       <c r="AD2" t="n">
-        <v>1600658.939324343</v>
+        <v>1726664.359594224</v>
       </c>
       <c r="AE2" t="n">
-        <v>2190092.176872135</v>
+        <v>2362498.351852197</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.106101217127637e-06</v>
+        <v>1.619290571505311e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.42447916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1981072.853325134</v>
+        <v>2137024.824938685</v>
       </c>
     </row>
     <row r="3">
@@ -6339,28 +6339,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>894.1975577482856</v>
+        <v>986.6185351441757</v>
       </c>
       <c r="AB3" t="n">
-        <v>1223.480547723267</v>
+        <v>1349.935006322083</v>
       </c>
       <c r="AC3" t="n">
-        <v>1106.713281414291</v>
+        <v>1221.099103964384</v>
       </c>
       <c r="AD3" t="n">
-        <v>894197.5577482856</v>
+        <v>986618.5351441756</v>
       </c>
       <c r="AE3" t="n">
-        <v>1223480.547723267</v>
+        <v>1349935.006322083</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.587291949203247e-06</v>
+        <v>2.323735701372536e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.80794270833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1106713.281414291</v>
+        <v>1221099.103964384</v>
       </c>
     </row>
     <row r="4">
@@ -6445,28 +6445,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>753.1703426836082</v>
+        <v>828.9271546786352</v>
       </c>
       <c r="AB4" t="n">
-        <v>1030.520890390151</v>
+        <v>1134.174702716415</v>
       </c>
       <c r="AC4" t="n">
-        <v>932.1694229564679</v>
+        <v>1025.930660913353</v>
       </c>
       <c r="AD4" t="n">
-        <v>753170.3426836082</v>
+        <v>828927.1546786353</v>
       </c>
       <c r="AE4" t="n">
-        <v>1030520.890390151</v>
+        <v>1134174.702716415</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.765106509169365e-06</v>
+        <v>2.584049527965382e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.8125</v>
       </c>
       <c r="AH4" t="n">
-        <v>932169.4229564678</v>
+        <v>1025930.660913353</v>
       </c>
     </row>
     <row r="5">
@@ -6551,28 +6551,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>688.1473881036264</v>
+        <v>763.8188592440821</v>
       </c>
       <c r="AB5" t="n">
-        <v>941.5536153235204</v>
+        <v>1045.090660527587</v>
       </c>
       <c r="AC5" t="n">
-        <v>851.6930597558418</v>
+        <v>945.3486746807876</v>
       </c>
       <c r="AD5" t="n">
-        <v>688147.3881036264</v>
+        <v>763818.8592440821</v>
       </c>
       <c r="AE5" t="n">
-        <v>941553.6153235204</v>
+        <v>1045090.660527587</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.858215273866452e-06</v>
+        <v>2.720357256827687e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.92057291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>851693.0597558417</v>
+        <v>945348.6746807876</v>
       </c>
     </row>
     <row r="6">
@@ -6657,28 +6657,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>654.1133455003614</v>
+        <v>721.3674825943651</v>
       </c>
       <c r="AB6" t="n">
-        <v>894.9867367577427</v>
+        <v>987.0068141728835</v>
       </c>
       <c r="AC6" t="n">
-        <v>809.5704587233571</v>
+        <v>892.8082691009869</v>
       </c>
       <c r="AD6" t="n">
-        <v>654113.3455003614</v>
+        <v>721367.4825943651</v>
       </c>
       <c r="AE6" t="n">
-        <v>894986.7367577427</v>
+        <v>987006.8141728835</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.914911171041961e-06</v>
+        <v>2.803357917452348e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.41927083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>809570.4587233571</v>
+        <v>892808.2691009869</v>
       </c>
     </row>
     <row r="7">
@@ -6763,28 +6763,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>627.8974565322407</v>
+        <v>695.1515936262442</v>
       </c>
       <c r="AB7" t="n">
-        <v>859.1170009081646</v>
+        <v>951.1370783233053</v>
       </c>
       <c r="AC7" t="n">
-        <v>777.1240801197723</v>
+        <v>860.3618904974022</v>
       </c>
       <c r="AD7" t="n">
-        <v>627897.4565322406</v>
+        <v>695151.5936262442</v>
       </c>
       <c r="AE7" t="n">
-        <v>859117.0009081647</v>
+        <v>951137.0783233054</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.956829432326749e-06</v>
+        <v>2.864724675052182e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.06770833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>777124.0801197723</v>
+        <v>860361.8904974022</v>
       </c>
     </row>
     <row r="8">
@@ -6869,28 +6869,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>599.9772610845931</v>
+        <v>675.563391370477</v>
       </c>
       <c r="AB8" t="n">
-        <v>820.9153577446026</v>
+        <v>924.3356358264715</v>
       </c>
       <c r="AC8" t="n">
-        <v>742.5683481633981</v>
+        <v>836.118340056405</v>
       </c>
       <c r="AD8" t="n">
-        <v>599977.2610845931</v>
+        <v>675563.391370477</v>
       </c>
       <c r="AE8" t="n">
-        <v>820915.3577446026</v>
+        <v>924335.6358264715</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.982714441599383e-06</v>
+        <v>2.902619354860376e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.85611979166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>742568.3481633981</v>
+        <v>836118.3400564051</v>
       </c>
     </row>
     <row r="9">
@@ -6975,28 +6975,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>581.0345043289252</v>
+        <v>648.3738927689493</v>
       </c>
       <c r="AB9" t="n">
-        <v>794.9970422560501</v>
+        <v>887.1337643238404</v>
       </c>
       <c r="AC9" t="n">
-        <v>719.1236403284887</v>
+        <v>802.4669629568306</v>
       </c>
       <c r="AD9" t="n">
-        <v>581034.5043289252</v>
+        <v>648373.8927689493</v>
       </c>
       <c r="AE9" t="n">
-        <v>794997.0422560502</v>
+        <v>887133.7643238404</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.007440420606078e-06</v>
+        <v>2.938817257960739e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.66080729166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>719123.6403284887</v>
+        <v>802466.9629568306</v>
       </c>
     </row>
     <row r="10">
@@ -7081,28 +7081,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>564.0728476587396</v>
+        <v>631.4122360987639</v>
       </c>
       <c r="AB10" t="n">
-        <v>771.7893553044222</v>
+        <v>863.9260773722124</v>
       </c>
       <c r="AC10" t="n">
-        <v>698.1308624473309</v>
+        <v>781.4741850756727</v>
       </c>
       <c r="AD10" t="n">
-        <v>564072.8476587397</v>
+        <v>631412.2360987639</v>
       </c>
       <c r="AE10" t="n">
-        <v>771789.3553044222</v>
+        <v>863926.0773722124</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.025115632161646e-06</v>
+        <v>2.964693102755139e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.52408854166667</v>
       </c>
       <c r="AH10" t="n">
-        <v>698130.8624473308</v>
+        <v>781474.1850756727</v>
       </c>
     </row>
     <row r="11">
@@ -7187,28 +7187,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>555.0911913702977</v>
+        <v>622.2599876097297</v>
       </c>
       <c r="AB11" t="n">
-        <v>759.500256927866</v>
+        <v>851.4035672208091</v>
       </c>
       <c r="AC11" t="n">
-        <v>687.0146183719753</v>
+        <v>770.1468057176662</v>
       </c>
       <c r="AD11" t="n">
-        <v>555091.1913702977</v>
+        <v>622259.9876097298</v>
       </c>
       <c r="AE11" t="n">
-        <v>759500.2569278659</v>
+        <v>851403.5672208092</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.032166399612774e-06</v>
+        <v>2.975015161061102e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.47200520833333</v>
       </c>
       <c r="AH11" t="n">
-        <v>687014.6183719753</v>
+        <v>770146.8057176662</v>
       </c>
     </row>
     <row r="12">
@@ -7293,28 +7293,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>555.5218654876952</v>
+        <v>622.6906617271272</v>
       </c>
       <c r="AB12" t="n">
-        <v>760.0895242552903</v>
+        <v>851.9928345482335</v>
       </c>
       <c r="AC12" t="n">
-        <v>687.547646852712</v>
+        <v>770.6798341984029</v>
       </c>
       <c r="AD12" t="n">
-        <v>555521.8654876952</v>
+        <v>622690.6617271273</v>
       </c>
       <c r="AE12" t="n">
-        <v>760089.5242552903</v>
+        <v>851992.8345482335</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.035257146988611e-06</v>
+        <v>2.979539898948648e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.44921875</v>
       </c>
       <c r="AH12" t="n">
-        <v>687547.646852712</v>
+        <v>770679.8341984029</v>
       </c>
     </row>
     <row r="13">
@@ -7399,28 +7399,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>557.4775891510031</v>
+        <v>624.6463853904353</v>
       </c>
       <c r="AB13" t="n">
-        <v>762.7654316518669</v>
+        <v>854.6687419448101</v>
       </c>
       <c r="AC13" t="n">
-        <v>689.968169403019</v>
+        <v>773.1003567487098</v>
       </c>
       <c r="AD13" t="n">
-        <v>557477.5891510032</v>
+        <v>624646.3853904352</v>
       </c>
       <c r="AE13" t="n">
-        <v>762765.431651867</v>
+        <v>854668.7419448101</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.035353732844106e-06</v>
+        <v>2.979681297007634e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.44596354166667</v>
       </c>
       <c r="AH13" t="n">
-        <v>689968.169403019</v>
+        <v>773100.3567487098</v>
       </c>
     </row>
   </sheetData>
@@ -7696,28 +7696,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>660.9185518239186</v>
+        <v>746.1880461914136</v>
       </c>
       <c r="AB2" t="n">
-        <v>904.2979202741475</v>
+        <v>1020.96740429235</v>
       </c>
       <c r="AC2" t="n">
-        <v>817.9929959532847</v>
+        <v>923.5277081634385</v>
       </c>
       <c r="AD2" t="n">
-        <v>660918.5518239186</v>
+        <v>746188.0461914137</v>
       </c>
       <c r="AE2" t="n">
-        <v>904297.9202741475</v>
+        <v>1020967.40429235</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.760732335143113e-06</v>
+        <v>2.724070254791191e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.92513020833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>817992.9959532847</v>
+        <v>923527.7081634386</v>
       </c>
     </row>
     <row r="3">
@@ -7802,28 +7802,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>483.2835172066918</v>
+        <v>553.1037749602789</v>
       </c>
       <c r="AB3" t="n">
-        <v>661.2498292062177</v>
+        <v>756.7809861170542</v>
       </c>
       <c r="AC3" t="n">
-        <v>598.1410735767396</v>
+        <v>684.5548709508266</v>
       </c>
       <c r="AD3" t="n">
-        <v>483283.5172066918</v>
+        <v>553103.7749602789</v>
       </c>
       <c r="AE3" t="n">
-        <v>661249.8292062177</v>
+        <v>756780.9861170542</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.10087258425321e-06</v>
+        <v>3.250309204666994e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.69921875</v>
       </c>
       <c r="AH3" t="n">
-        <v>598141.0735767396</v>
+        <v>684554.8709508267</v>
       </c>
     </row>
     <row r="4">
@@ -7908,28 +7908,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>429.5291321566277</v>
+        <v>499.2640490556431</v>
       </c>
       <c r="AB4" t="n">
-        <v>587.7007081046219</v>
+        <v>683.1150978932608</v>
       </c>
       <c r="AC4" t="n">
-        <v>531.6113773662404</v>
+        <v>617.9195517083886</v>
       </c>
       <c r="AD4" t="n">
-        <v>429529.1321566277</v>
+        <v>499264.049055643</v>
       </c>
       <c r="AE4" t="n">
-        <v>587700.7081046219</v>
+        <v>683115.0978932608</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.204876177533072e-06</v>
+        <v>3.411215600937637e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.91145833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>531611.3773662404</v>
+        <v>617919.5517083886</v>
       </c>
     </row>
     <row r="5">
@@ -8014,28 +8014,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>428.4171950281007</v>
+        <v>498.1521119271161</v>
       </c>
       <c r="AB5" t="n">
-        <v>586.1793066701675</v>
+        <v>681.5936964588063</v>
       </c>
       <c r="AC5" t="n">
-        <v>530.2351763493898</v>
+        <v>616.5433506915382</v>
       </c>
       <c r="AD5" t="n">
-        <v>428417.1950281007</v>
+        <v>498152.1119271161</v>
       </c>
       <c r="AE5" t="n">
-        <v>586179.3066701675</v>
+        <v>681593.6964588063</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.212636031124938e-06</v>
+        <v>3.423221052265602e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.85611979166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>530235.1763493898</v>
+        <v>616543.3506915382</v>
       </c>
     </row>
   </sheetData>
@@ -8311,28 +8311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>920.440588384507</v>
+        <v>1008.591457667677</v>
       </c>
       <c r="AB2" t="n">
-        <v>1259.387420000546</v>
+        <v>1379.999328295664</v>
       </c>
       <c r="AC2" t="n">
-        <v>1139.193252197039</v>
+        <v>1248.294129244347</v>
       </c>
       <c r="AD2" t="n">
-        <v>920440.588384507</v>
+        <v>1008591.457667677</v>
       </c>
       <c r="AE2" t="n">
-        <v>1259387.420000546</v>
+        <v>1379999.328295664</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.497918659774242e-06</v>
+        <v>2.263795435729685e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.40559895833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1139193.252197039</v>
+        <v>1248294.129244347</v>
       </c>
     </row>
     <row r="3">
@@ -8417,28 +8417,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>620.0740176133324</v>
+        <v>692.2672072190337</v>
       </c>
       <c r="AB3" t="n">
-        <v>848.4126266335484</v>
+        <v>947.1905335908125</v>
       </c>
       <c r="AC3" t="n">
-        <v>767.4413163022419</v>
+        <v>856.791998455168</v>
       </c>
       <c r="AD3" t="n">
-        <v>620074.0176133325</v>
+        <v>692267.2072190337</v>
       </c>
       <c r="AE3" t="n">
-        <v>848412.6266335484</v>
+        <v>947190.5335908125</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.895906409411396e-06</v>
+        <v>2.865271921269097e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.70182291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>767441.316302242</v>
+        <v>856791.998455168</v>
       </c>
     </row>
     <row r="4">
@@ -8523,28 +8523,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>543.7832452494346</v>
+        <v>607.8697179973708</v>
       </c>
       <c r="AB4" t="n">
-        <v>744.028226173927</v>
+        <v>831.7141654832901</v>
       </c>
       <c r="AC4" t="n">
-        <v>673.0192165180605</v>
+        <v>752.3365328477269</v>
       </c>
       <c r="AD4" t="n">
-        <v>543783.2452494346</v>
+        <v>607869.7179973708</v>
       </c>
       <c r="AE4" t="n">
-        <v>744028.226173927</v>
+        <v>831714.1654832901</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.035717649957504e-06</v>
+        <v>3.076567805826466e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.48763020833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>673019.2165180605</v>
+        <v>752336.5328477268</v>
       </c>
     </row>
     <row r="5">
@@ -8629,28 +8629,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>496.9777408424703</v>
+        <v>569.0002487390284</v>
       </c>
       <c r="AB5" t="n">
-        <v>679.9868701311982</v>
+        <v>778.5312428440669</v>
       </c>
       <c r="AC5" t="n">
-        <v>615.0898776134421</v>
+        <v>704.2293137024905</v>
       </c>
       <c r="AD5" t="n">
-        <v>496977.7408424703</v>
+        <v>569000.2487390283</v>
       </c>
       <c r="AE5" t="n">
-        <v>679986.8701311982</v>
+        <v>778531.2428440669</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.110984763230853e-06</v>
+        <v>3.190318540138324e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.8984375</v>
       </c>
       <c r="AH5" t="n">
-        <v>615089.8776134421</v>
+        <v>704229.3137024904</v>
       </c>
     </row>
     <row r="6">
@@ -8735,28 +8735,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>474.4848846147177</v>
+        <v>538.6566087086743</v>
       </c>
       <c r="AB6" t="n">
-        <v>649.2111519256043</v>
+        <v>737.0137358876169</v>
       </c>
       <c r="AC6" t="n">
-        <v>587.2513507593983</v>
+        <v>666.674179339777</v>
       </c>
       <c r="AD6" t="n">
-        <v>474484.8846147177</v>
+        <v>538656.6087086743</v>
       </c>
       <c r="AE6" t="n">
-        <v>649211.1519256043</v>
+        <v>737013.7358876169</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.146143784636622e-06</v>
+        <v>3.243454157125095e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.63802083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>587251.3507593983</v>
+        <v>666674.179339777</v>
       </c>
     </row>
     <row r="7">
@@ -8841,28 +8841,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>473.5392962636477</v>
+        <v>537.7110203576044</v>
       </c>
       <c r="AB7" t="n">
-        <v>647.9173562272566</v>
+        <v>735.7199401892691</v>
       </c>
       <c r="AC7" t="n">
-        <v>586.0810331066472</v>
+        <v>665.5038616870258</v>
       </c>
       <c r="AD7" t="n">
-        <v>473539.2962636477</v>
+        <v>537711.0203576044</v>
       </c>
       <c r="AE7" t="n">
-        <v>647917.3562272566</v>
+        <v>735719.9401892691</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.150886643829188e-06</v>
+        <v>3.250622011615979e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.60546875</v>
       </c>
       <c r="AH7" t="n">
-        <v>586081.0331066472</v>
+        <v>665503.8616870259</v>
       </c>
     </row>
   </sheetData>
@@ -9138,28 +9138,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>507.0141512757106</v>
+        <v>574.9582046639604</v>
       </c>
       <c r="AB2" t="n">
-        <v>693.7191296611362</v>
+        <v>786.6831809870235</v>
       </c>
       <c r="AC2" t="n">
-        <v>627.5115495671901</v>
+        <v>711.6032423104003</v>
       </c>
       <c r="AD2" t="n">
-        <v>507014.1512757106</v>
+        <v>574958.2046639604</v>
       </c>
       <c r="AE2" t="n">
-        <v>693719.1296611362</v>
+        <v>786683.1809870235</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.987839084971667e-06</v>
+        <v>3.141755800531206e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.330078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>627511.5495671901</v>
+        <v>711603.2423104004</v>
       </c>
     </row>
     <row r="3">
@@ -9244,28 +9244,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>399.8976354526804</v>
+        <v>460.2828772037891</v>
       </c>
       <c r="AB3" t="n">
-        <v>547.1575870649077</v>
+        <v>629.7793388376243</v>
       </c>
       <c r="AC3" t="n">
-        <v>494.9376348959288</v>
+        <v>569.6740826398142</v>
       </c>
       <c r="AD3" t="n">
-        <v>399897.6354526804</v>
+        <v>460282.8772037891</v>
       </c>
       <c r="AE3" t="n">
-        <v>547157.5870649078</v>
+        <v>629779.3388376243</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.243832552358918e-06</v>
+        <v>3.5463504013429e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.23697916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>494937.6348959288</v>
+        <v>569674.0826398141</v>
       </c>
     </row>
     <row r="4">
@@ -9350,28 +9350,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>401.9594675429967</v>
+        <v>462.3447092941054</v>
       </c>
       <c r="AB4" t="n">
-        <v>549.9786766924907</v>
+        <v>632.6004284652071</v>
       </c>
       <c r="AC4" t="n">
-        <v>497.4894836888793</v>
+        <v>572.2259314327647</v>
       </c>
       <c r="AD4" t="n">
-        <v>401959.4675429967</v>
+        <v>462344.7092941054</v>
       </c>
       <c r="AE4" t="n">
-        <v>549978.6766924907</v>
+        <v>632600.4284652071</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.245959301760037e-06</v>
+        <v>3.549711703229836e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.22395833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>497489.4836888793</v>
+        <v>572225.9314327647</v>
       </c>
     </row>
   </sheetData>
@@ -9647,28 +9647,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1744.900877458322</v>
+        <v>1872.013617244927</v>
       </c>
       <c r="AB2" t="n">
-        <v>2387.450360132243</v>
+        <v>2561.371618526575</v>
       </c>
       <c r="AC2" t="n">
-        <v>2159.595448568847</v>
+        <v>2316.917906162043</v>
       </c>
       <c r="AD2" t="n">
-        <v>1744900.877458322</v>
+        <v>1872013.617244927</v>
       </c>
       <c r="AE2" t="n">
-        <v>2387450.360132243</v>
+        <v>2561371.618526575</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.052326239144753e-06</v>
+        <v>1.534171995507763e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>2159595.448568847</v>
+        <v>2316917.906162044</v>
       </c>
     </row>
     <row r="3">
@@ -9753,28 +9753,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>948.1886793856055</v>
+        <v>1032.845254563988</v>
       </c>
       <c r="AB3" t="n">
-        <v>1297.353582267627</v>
+        <v>1413.184443211199</v>
       </c>
       <c r="AC3" t="n">
-        <v>1173.535977223193</v>
+        <v>1278.312103367945</v>
       </c>
       <c r="AD3" t="n">
-        <v>948188.6793856055</v>
+        <v>1032845.254563988</v>
       </c>
       <c r="AE3" t="n">
-        <v>1297353.582267627</v>
+        <v>1413184.443211199</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.544126513542219e-06</v>
+        <v>2.251160872433258e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.17903645833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1173535.977223193</v>
+        <v>1278312.103367945</v>
       </c>
     </row>
     <row r="4">
@@ -9859,28 +9859,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>796.9138595572102</v>
+        <v>873.0962520831528</v>
       </c>
       <c r="AB4" t="n">
-        <v>1090.372700004378</v>
+        <v>1194.608810388328</v>
       </c>
       <c r="AC4" t="n">
-        <v>986.3090598636551</v>
+        <v>1080.597022168861</v>
       </c>
       <c r="AD4" t="n">
-        <v>796913.8595572102</v>
+        <v>873096.2520831528</v>
       </c>
       <c r="AE4" t="n">
-        <v>1090372.700004378</v>
+        <v>1194608.810388328</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.724076789109995e-06</v>
+        <v>2.513507911868822e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.07291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>986309.0598636551</v>
+        <v>1080597.022168861</v>
       </c>
     </row>
     <row r="5">
@@ -9965,28 +9965,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>724.449238760859</v>
+        <v>792.2427894889327</v>
       </c>
       <c r="AB5" t="n">
-        <v>991.2234089173674</v>
+        <v>1083.981535863893</v>
       </c>
       <c r="AC5" t="n">
-        <v>896.6224379610849</v>
+        <v>980.5278594586828</v>
       </c>
       <c r="AD5" t="n">
-        <v>724449.238760859</v>
+        <v>792242.7894889327</v>
       </c>
       <c r="AE5" t="n">
-        <v>991223.4089173673</v>
+        <v>1083981.535863893</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.825250960001027e-06</v>
+        <v>2.661008348402541e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.0703125</v>
       </c>
       <c r="AH5" t="n">
-        <v>896622.4379610849</v>
+        <v>980527.8594586828</v>
       </c>
     </row>
     <row r="6">
@@ -10071,28 +10071,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>680.3123499104106</v>
+        <v>756.4946529278019</v>
       </c>
       <c r="AB6" t="n">
-        <v>930.8333704100729</v>
+        <v>1035.069358324475</v>
       </c>
       <c r="AC6" t="n">
-        <v>841.9959399709755</v>
+        <v>936.2837914949546</v>
       </c>
       <c r="AD6" t="n">
-        <v>680312.3499104106</v>
+        <v>756494.6529278019</v>
       </c>
       <c r="AE6" t="n">
-        <v>930833.370410073</v>
+        <v>1035069.358324475</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.88325620840213e-06</v>
+        <v>2.745573404731239e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.54622395833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>841995.9399709755</v>
+        <v>936283.7914949546</v>
       </c>
     </row>
     <row r="7">
@@ -10177,28 +10177,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>654.0793549960852</v>
+        <v>721.7875648695873</v>
       </c>
       <c r="AB7" t="n">
-        <v>894.9402294502365</v>
+        <v>987.5815892745643</v>
       </c>
       <c r="AC7" t="n">
-        <v>809.5283900080061</v>
+        <v>893.3281884736653</v>
       </c>
       <c r="AD7" t="n">
-        <v>654079.3549960852</v>
+        <v>721787.5648695873</v>
       </c>
       <c r="AE7" t="n">
-        <v>894940.2294502365</v>
+        <v>987581.5892745643</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.92412789333162e-06</v>
+        <v>2.80515967379453e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.19466145833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>809528.3900080061</v>
+        <v>893328.1884736653</v>
       </c>
     </row>
     <row r="8">
@@ -10283,28 +10283,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>626.201402603764</v>
+        <v>702.2983647665835</v>
       </c>
       <c r="AB8" t="n">
-        <v>856.7963850986043</v>
+        <v>960.9156058908081</v>
       </c>
       <c r="AC8" t="n">
-        <v>775.0249406260718</v>
+        <v>869.207169118112</v>
       </c>
       <c r="AD8" t="n">
-        <v>626201.402603764</v>
+        <v>702298.3647665835</v>
       </c>
       <c r="AE8" t="n">
-        <v>856796.3850986044</v>
+        <v>960915.6058908082</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.95255620814206e-06</v>
+        <v>2.846604924173445e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.95703125</v>
       </c>
       <c r="AH8" t="n">
-        <v>775024.9406260719</v>
+        <v>869207.169118112</v>
       </c>
     </row>
     <row r="9">
@@ -10389,28 +10389,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>608.5198375780359</v>
+        <v>676.3132987975586</v>
       </c>
       <c r="AB9" t="n">
-        <v>832.6036877748079</v>
+        <v>925.3616922517849</v>
       </c>
       <c r="AC9" t="n">
-        <v>753.1411603801946</v>
+        <v>837.0464710965659</v>
       </c>
       <c r="AD9" t="n">
-        <v>608519.8375780359</v>
+        <v>676313.2987975585</v>
       </c>
       <c r="AE9" t="n">
-        <v>832603.6877748079</v>
+        <v>925361.692251785</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.974475683197923e-06</v>
+        <v>2.878561026317459e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.78125</v>
       </c>
       <c r="AH9" t="n">
-        <v>753141.1603801947</v>
+        <v>837046.4710965659</v>
       </c>
     </row>
     <row r="10">
@@ -10495,28 +10495,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>590.741055518769</v>
+        <v>658.5345167382917</v>
       </c>
       <c r="AB10" t="n">
-        <v>808.2779738168108</v>
+        <v>901.0359782937879</v>
       </c>
       <c r="AC10" t="n">
-        <v>731.1370584209947</v>
+        <v>815.0423691373661</v>
       </c>
       <c r="AD10" t="n">
-        <v>590741.0555187691</v>
+        <v>658534.5167382917</v>
       </c>
       <c r="AE10" t="n">
-        <v>808277.9738168108</v>
+        <v>901035.9782937879</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.99534225770525e-06</v>
+        <v>2.908982119188178e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.615234375</v>
       </c>
       <c r="AH10" t="n">
-        <v>731137.0584209947</v>
+        <v>815042.3691373661</v>
       </c>
     </row>
     <row r="11">
@@ -10601,28 +10601,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>574.5592966106753</v>
+        <v>642.1821656296059</v>
       </c>
       <c r="AB11" t="n">
-        <v>786.1373773899378</v>
+        <v>878.6619700920679</v>
       </c>
       <c r="AC11" t="n">
-        <v>711.1095294425802</v>
+        <v>794.8037048763007</v>
       </c>
       <c r="AD11" t="n">
-        <v>574559.2966106754</v>
+        <v>642182.165629606</v>
       </c>
       <c r="AE11" t="n">
-        <v>786137.3773899378</v>
+        <v>878661.970092068</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.010561456543163e-06</v>
+        <v>2.931169980502143e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.498046875</v>
       </c>
       <c r="AH11" t="n">
-        <v>711109.5294425802</v>
+        <v>794803.7048763006</v>
       </c>
     </row>
     <row r="12">
@@ -10707,28 +10707,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>568.2093371902328</v>
+        <v>635.832206209163</v>
       </c>
       <c r="AB12" t="n">
-        <v>777.4490827704498</v>
+        <v>869.9736754725799</v>
       </c>
       <c r="AC12" t="n">
-        <v>703.250433467478</v>
+        <v>786.9446089011985</v>
       </c>
       <c r="AD12" t="n">
-        <v>568209.3371902327</v>
+        <v>635832.2062091631</v>
       </c>
       <c r="AE12" t="n">
-        <v>777449.0827704498</v>
+        <v>869973.6754725799</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.016208832212577e-06</v>
+        <v>2.939403212058898e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.45247395833333</v>
       </c>
       <c r="AH12" t="n">
-        <v>703250.433467478</v>
+        <v>786944.6089011985</v>
       </c>
     </row>
     <row r="13">
@@ -10813,28 +10813,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>567.3814877076508</v>
+        <v>635.0043567265812</v>
       </c>
       <c r="AB13" t="n">
-        <v>776.3163825862397</v>
+        <v>868.8409752883697</v>
       </c>
       <c r="AC13" t="n">
-        <v>702.2258365990942</v>
+        <v>785.9200120328146</v>
       </c>
       <c r="AD13" t="n">
-        <v>567381.4877076508</v>
+        <v>635004.3567265812</v>
       </c>
       <c r="AE13" t="n">
-        <v>776316.3825862397</v>
+        <v>868840.9752883697</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.019176097394812e-06</v>
+        <v>2.943729147283633e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.4296875</v>
       </c>
       <c r="AH13" t="n">
-        <v>702225.8365990942</v>
+        <v>785920.0120328146</v>
       </c>
     </row>
   </sheetData>
@@ -11110,28 +11110,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>423.7344014882192</v>
+        <v>490.4820671170212</v>
       </c>
       <c r="AB2" t="n">
-        <v>579.772101958631</v>
+        <v>671.0992027711388</v>
       </c>
       <c r="AC2" t="n">
-        <v>524.4394662629543</v>
+        <v>607.0504367523074</v>
       </c>
       <c r="AD2" t="n">
-        <v>423734.4014882193</v>
+        <v>490482.0671170212</v>
       </c>
       <c r="AE2" t="n">
-        <v>579772.101958631</v>
+        <v>671099.2027711389</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.132947113004068e-06</v>
+        <v>3.417482299356598e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.48372395833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>524439.4662629543</v>
+        <v>607050.4367523075</v>
       </c>
     </row>
     <row r="3">
@@ -11216,28 +11216,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>380.5948925527453</v>
+        <v>447.4278095275678</v>
       </c>
       <c r="AB3" t="n">
-        <v>520.7467226523011</v>
+        <v>612.1904681174583</v>
       </c>
       <c r="AC3" t="n">
-        <v>471.0473863149803</v>
+        <v>553.7638690550458</v>
       </c>
       <c r="AD3" t="n">
-        <v>380594.8925527453</v>
+        <v>447427.8095275678</v>
       </c>
       <c r="AE3" t="n">
-        <v>520746.7226523011</v>
+        <v>612190.4681174583</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.251393263103219e-06</v>
+        <v>3.607260854541062e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.5625</v>
       </c>
       <c r="AH3" t="n">
-        <v>471047.3863149803</v>
+        <v>553763.8690550458</v>
       </c>
     </row>
   </sheetData>
@@ -11513,28 +11513,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1224.762794764762</v>
+        <v>1331.623969249818</v>
       </c>
       <c r="AB2" t="n">
-        <v>1675.774488518215</v>
+        <v>1821.986661830962</v>
       </c>
       <c r="AC2" t="n">
-        <v>1515.840923298302</v>
+        <v>1648.098812000155</v>
       </c>
       <c r="AD2" t="n">
-        <v>1224762.794764762</v>
+        <v>1331623.969249818</v>
       </c>
       <c r="AE2" t="n">
-        <v>1675774.488518215</v>
+        <v>1821986.661830962</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.286210183645239e-06</v>
+        <v>1.909820441264283e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.185546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1515840.923298302</v>
+        <v>1648098.812000155</v>
       </c>
     </row>
     <row r="3">
@@ -11619,28 +11619,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>753.3265333024822</v>
+        <v>835.5733206676393</v>
       </c>
       <c r="AB3" t="n">
-        <v>1030.734597285538</v>
+        <v>1143.268280230721</v>
       </c>
       <c r="AC3" t="n">
-        <v>932.3627339656989</v>
+        <v>1034.156360152609</v>
       </c>
       <c r="AD3" t="n">
-        <v>753326.5333024822</v>
+        <v>835573.3206676394</v>
       </c>
       <c r="AE3" t="n">
-        <v>1030734.597285538</v>
+        <v>1143268.280230721</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.731134418158034e-06</v>
+        <v>2.570463164118643e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.71419270833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>932362.7339656989</v>
+        <v>1034156.360152609</v>
       </c>
     </row>
     <row r="4">
@@ -11725,28 +11725,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>653.1556837287643</v>
+        <v>719.0214758130985</v>
       </c>
       <c r="AB4" t="n">
-        <v>893.6764216727877</v>
+        <v>983.79690419624</v>
       </c>
       <c r="AC4" t="n">
-        <v>808.3851982710717</v>
+        <v>889.9047084273772</v>
       </c>
       <c r="AD4" t="n">
-        <v>653155.6837287643</v>
+        <v>719021.4758130985</v>
       </c>
       <c r="AE4" t="n">
-        <v>893676.4216727876</v>
+        <v>983796.90419624</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.890057254775554e-06</v>
+        <v>2.806438656938687e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.138671875</v>
       </c>
       <c r="AH4" t="n">
-        <v>808385.1982710717</v>
+        <v>889904.7084273772</v>
       </c>
     </row>
     <row r="5">
@@ -11831,28 +11831,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>600.1160000286227</v>
+        <v>665.8964512583854</v>
       </c>
       <c r="AB5" t="n">
-        <v>821.1051864885541</v>
+        <v>911.1089018898087</v>
       </c>
       <c r="AC5" t="n">
-        <v>742.7400599184531</v>
+        <v>824.1539470428198</v>
       </c>
       <c r="AD5" t="n">
-        <v>600116.0000286227</v>
+        <v>665896.4512583853</v>
       </c>
       <c r="AE5" t="n">
-        <v>821105.1864885541</v>
+        <v>911108.9018898087</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.972653343938072e-06</v>
+        <v>2.929080898041151e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.42252604166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>742740.0599184531</v>
+        <v>824153.9470428198</v>
       </c>
     </row>
     <row r="6">
@@ -11937,28 +11937,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>570.2862428071693</v>
+        <v>636.0666940369319</v>
       </c>
       <c r="AB6" t="n">
-        <v>780.2907966621517</v>
+        <v>870.2945120634062</v>
       </c>
       <c r="AC6" t="n">
-        <v>705.8209381737264</v>
+        <v>787.2348252980931</v>
       </c>
       <c r="AD6" t="n">
-        <v>570286.2428071693</v>
+        <v>636066.694036932</v>
       </c>
       <c r="AE6" t="n">
-        <v>780290.7966621517</v>
+        <v>870294.5120634062</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.023007104319077e-06</v>
+        <v>3.003848336592775e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.01236979166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>705820.9381737264</v>
+        <v>787234.8252980931</v>
       </c>
     </row>
     <row r="7">
@@ -12043,28 +12043,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>537.293526570513</v>
+        <v>603.1592291462963</v>
       </c>
       <c r="AB7" t="n">
-        <v>735.1487067712445</v>
+        <v>825.2690668251487</v>
       </c>
       <c r="AC7" t="n">
-        <v>664.9871459846864</v>
+        <v>746.5065453597656</v>
       </c>
       <c r="AD7" t="n">
-        <v>537293.526570513</v>
+        <v>603159.2291462963</v>
       </c>
       <c r="AE7" t="n">
-        <v>735148.7067712445</v>
+        <v>825269.0668251486</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.059727534320245e-06</v>
+        <v>3.058372417275677e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.72916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>664987.1459846864</v>
+        <v>746506.5453597656</v>
       </c>
     </row>
     <row r="8">
@@ -12149,28 +12149,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>518.7838075399657</v>
+        <v>584.6495101157487</v>
       </c>
       <c r="AB8" t="n">
-        <v>709.8228926024782</v>
+        <v>799.943252656382</v>
       </c>
       <c r="AC8" t="n">
-        <v>642.0783919751836</v>
+        <v>723.5977913502627</v>
       </c>
       <c r="AD8" t="n">
-        <v>518783.8075399656</v>
+        <v>584649.5101157487</v>
       </c>
       <c r="AE8" t="n">
-        <v>709822.8926024782</v>
+        <v>799943.252656382</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.084804901150311e-06</v>
+        <v>3.095608374815221e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.537109375</v>
       </c>
       <c r="AH8" t="n">
-        <v>642078.3919751836</v>
+        <v>723597.7913502627</v>
       </c>
     </row>
     <row r="9">
@@ -12255,28 +12255,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>514.3387633435618</v>
+        <v>580.2044659193451</v>
       </c>
       <c r="AB9" t="n">
-        <v>703.7409870314486</v>
+        <v>793.8613470853526</v>
       </c>
       <c r="AC9" t="n">
-        <v>636.5769349358452</v>
+        <v>718.0963343109241</v>
       </c>
       <c r="AD9" t="n">
-        <v>514338.7633435618</v>
+        <v>580204.4659193452</v>
       </c>
       <c r="AE9" t="n">
-        <v>703740.9870314486</v>
+        <v>793861.3470853525</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.089382515730402e-06</v>
+        <v>3.10240541468355e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.50455729166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>636576.9349358452</v>
+        <v>718096.3343109242</v>
       </c>
     </row>
     <row r="10">
@@ -12361,28 +12361,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>516.605176614356</v>
+        <v>582.4708791901393</v>
       </c>
       <c r="AB10" t="n">
-        <v>706.841993655646</v>
+        <v>796.9623537095499</v>
       </c>
       <c r="AC10" t="n">
-        <v>639.3819858401192</v>
+        <v>720.9013852151983</v>
       </c>
       <c r="AD10" t="n">
-        <v>516605.176614356</v>
+        <v>582470.8791901392</v>
       </c>
       <c r="AE10" t="n">
-        <v>706841.993655646</v>
+        <v>796962.3537095499</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.089581542451275e-06</v>
+        <v>3.102700938156086e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.50130208333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>639381.9858401192</v>
+        <v>720901.3852151983</v>
       </c>
     </row>
   </sheetData>
@@ -12658,28 +12658,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1465.004265539774</v>
+        <v>1581.852759042235</v>
       </c>
       <c r="AB2" t="n">
-        <v>2004.483467538257</v>
+        <v>2164.360731340037</v>
       </c>
       <c r="AC2" t="n">
-        <v>1813.178378706621</v>
+        <v>1957.797180840308</v>
       </c>
       <c r="AD2" t="n">
-        <v>1465004.265539774</v>
+        <v>1581852.759042236</v>
       </c>
       <c r="AE2" t="n">
-        <v>2004483.467538257</v>
+        <v>2164360.731340037</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.163408984865176e-06</v>
+        <v>1.71072599196129e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.28190104166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1813178.378706621</v>
+        <v>1957797.180840308</v>
       </c>
     </row>
     <row r="3">
@@ -12764,28 +12764,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>850.0794853442264</v>
+        <v>933.4939543601012</v>
       </c>
       <c r="AB3" t="n">
-        <v>1163.116254708045</v>
+        <v>1277.247611202218</v>
       </c>
       <c r="AC3" t="n">
-        <v>1052.110071802625</v>
+        <v>1155.348891817359</v>
       </c>
       <c r="AD3" t="n">
-        <v>850079.4853442265</v>
+        <v>933493.9543601011</v>
       </c>
       <c r="AE3" t="n">
-        <v>1163116.254708045</v>
+        <v>1277247.611202218</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.631814680749547e-06</v>
+        <v>2.399489624661762e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.44986979166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1052110.071802625</v>
+        <v>1155348.891817359</v>
       </c>
     </row>
     <row r="4">
@@ -12870,28 +12870,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>719.8280443056062</v>
+        <v>795.0545994004265</v>
       </c>
       <c r="AB4" t="n">
-        <v>984.9004867909795</v>
+        <v>1087.828778233097</v>
       </c>
       <c r="AC4" t="n">
-        <v>890.9029666481628</v>
+        <v>984.0079264158087</v>
       </c>
       <c r="AD4" t="n">
-        <v>719828.0443056063</v>
+        <v>795054.5994004265</v>
       </c>
       <c r="AE4" t="n">
-        <v>984900.4867909795</v>
+        <v>1087828.778233097</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.805077986658482e-06</v>
+        <v>2.654263349746845e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.58463541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>890902.9666481628</v>
+        <v>984007.9264158087</v>
       </c>
     </row>
     <row r="5">
@@ -12976,28 +12976,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>658.303791794066</v>
+        <v>733.4450060343146</v>
       </c>
       <c r="AB5" t="n">
-        <v>900.7202902462321</v>
+        <v>1003.531814566152</v>
       </c>
       <c r="AC5" t="n">
-        <v>814.7568099139982</v>
+        <v>907.7561466497053</v>
       </c>
       <c r="AD5" t="n">
-        <v>658303.791794066</v>
+        <v>733445.0060343146</v>
       </c>
       <c r="AE5" t="n">
-        <v>900720.2902462322</v>
+        <v>1003531.814566152</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.896146038272971e-06</v>
+        <v>2.78817368133349e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.73828125</v>
       </c>
       <c r="AH5" t="n">
-        <v>814756.8099139981</v>
+        <v>907756.1466497054</v>
       </c>
     </row>
     <row r="6">
@@ -13082,28 +13082,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>625.3398795238202</v>
+        <v>692.1226771509731</v>
       </c>
       <c r="AB6" t="n">
-        <v>855.6176112129092</v>
+        <v>946.9927811754754</v>
       </c>
       <c r="AC6" t="n">
-        <v>773.958667265608</v>
+        <v>856.6131192528035</v>
       </c>
       <c r="AD6" t="n">
-        <v>625339.8795238201</v>
+        <v>692122.6771509731</v>
       </c>
       <c r="AE6" t="n">
-        <v>855617.6112129092</v>
+        <v>946992.7811754755</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.951040377736522e-06</v>
+        <v>2.86889264994514e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.26953125</v>
       </c>
       <c r="AH6" t="n">
-        <v>773958.667265608</v>
+        <v>856613.1192528035</v>
       </c>
     </row>
     <row r="7">
@@ -13188,28 +13188,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>592.6979506703935</v>
+        <v>667.7538240560706</v>
       </c>
       <c r="AB7" t="n">
-        <v>810.9554840953845</v>
+        <v>913.6502412931065</v>
       </c>
       <c r="AC7" t="n">
-        <v>733.5590308764906</v>
+        <v>826.452744580259</v>
       </c>
       <c r="AD7" t="n">
-        <v>592697.9506703935</v>
+        <v>667753.8240560705</v>
       </c>
       <c r="AE7" t="n">
-        <v>810955.4840953845</v>
+        <v>913650.2412931066</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.988579135629004e-06</v>
+        <v>2.924091234164474e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.96028645833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>733559.0308764906</v>
+        <v>826452.7445802591</v>
       </c>
     </row>
     <row r="8">
@@ -13294,28 +13294,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>571.905508956687</v>
+        <v>638.7735579298607</v>
       </c>
       <c r="AB8" t="n">
-        <v>782.5063480449024</v>
+        <v>873.9981626601179</v>
       </c>
       <c r="AC8" t="n">
-        <v>707.8250404420536</v>
+        <v>790.5850046799609</v>
       </c>
       <c r="AD8" t="n">
-        <v>571905.5089566869</v>
+        <v>638773.5579298607</v>
       </c>
       <c r="AE8" t="n">
-        <v>782506.3480449024</v>
+        <v>873998.162660118</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.016952586399685e-06</v>
+        <v>2.965812761457529e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.73567708333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>707825.0404420536</v>
+        <v>790585.0046799609</v>
       </c>
     </row>
     <row r="9">
@@ -13400,28 +13400,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>555.2827347734313</v>
+        <v>622.1507837466049</v>
       </c>
       <c r="AB9" t="n">
-        <v>759.762335062332</v>
+        <v>851.2541496775474</v>
       </c>
       <c r="AC9" t="n">
-        <v>687.2516841371167</v>
+        <v>770.0116483750243</v>
       </c>
       <c r="AD9" t="n">
-        <v>555282.7347734313</v>
+        <v>622150.7837466049</v>
       </c>
       <c r="AE9" t="n">
-        <v>759762.335062332</v>
+        <v>851254.1496775474</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.035770716979552e-06</v>
+        <v>2.993483740040208e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.58919270833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>687251.6841371168</v>
+        <v>770011.6483750243</v>
       </c>
     </row>
     <row r="10">
@@ -13506,28 +13506,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>540.6023983004802</v>
+        <v>607.2998550730616</v>
       </c>
       <c r="AB10" t="n">
-        <v>739.6760510493041</v>
+        <v>830.9344538896726</v>
       </c>
       <c r="AC10" t="n">
-        <v>669.0824068790155</v>
+        <v>751.6312358342722</v>
       </c>
       <c r="AD10" t="n">
-        <v>540602.3983004802</v>
+        <v>607299.8550730617</v>
       </c>
       <c r="AE10" t="n">
-        <v>739676.0510493041</v>
+        <v>830934.4538896725</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.051078729938305e-06</v>
+        <v>3.015993292566015e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.47526041666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>669082.4068790155</v>
+        <v>751631.2358342721</v>
       </c>
     </row>
     <row r="11">
@@ -13612,28 +13612,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>541.5309757753812</v>
+        <v>608.2284325479627</v>
       </c>
       <c r="AB11" t="n">
-        <v>740.9465717164104</v>
+        <v>832.204974556779</v>
       </c>
       <c r="AC11" t="n">
-        <v>670.2316708368403</v>
+        <v>752.7804997920969</v>
       </c>
       <c r="AD11" t="n">
-        <v>541530.9757753812</v>
+        <v>608228.4325479628</v>
       </c>
       <c r="AE11" t="n">
-        <v>740946.5717164105</v>
+        <v>832204.974556779</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.053028795283369e-06</v>
+        <v>3.0188607514865e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.458984375</v>
       </c>
       <c r="AH11" t="n">
-        <v>670231.6708368403</v>
+        <v>752780.4997920969</v>
       </c>
     </row>
   </sheetData>
@@ -13909,28 +13909,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2089.71416699263</v>
+        <v>2226.940838979879</v>
       </c>
       <c r="AB2" t="n">
-        <v>2859.239114961802</v>
+        <v>3046.998701588428</v>
       </c>
       <c r="AC2" t="n">
-        <v>2586.357346797148</v>
+        <v>2756.19742199825</v>
       </c>
       <c r="AD2" t="n">
-        <v>2089714.16699263</v>
+        <v>2226940.838979879</v>
       </c>
       <c r="AE2" t="n">
-        <v>2859239.114961802</v>
+        <v>3046998.701588428</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.494059418941418e-07</v>
+        <v>1.373574414397253e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.26888020833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2586357.346797148</v>
+        <v>2756197.42199825</v>
       </c>
     </row>
     <row r="3">
@@ -14015,28 +14015,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1046.631197728816</v>
+        <v>1140.947804165866</v>
       </c>
       <c r="AB3" t="n">
-        <v>1432.046978842206</v>
+        <v>1561.095120724387</v>
       </c>
       <c r="AC3" t="n">
-        <v>1295.374425072063</v>
+        <v>1412.106393413214</v>
       </c>
       <c r="AD3" t="n">
-        <v>1046631.197728817</v>
+        <v>1140947.804165866</v>
       </c>
       <c r="AE3" t="n">
-        <v>1432046.978842206</v>
+        <v>1561095.120724387</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.459306952320635e-06</v>
+        <v>2.111285177403232e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.99283854166666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1295374.425072063</v>
+        <v>1412106.393413214</v>
       </c>
     </row>
     <row r="4">
@@ -14121,28 +14121,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>865.4309866069053</v>
+        <v>951.1655978356255</v>
       </c>
       <c r="AB4" t="n">
-        <v>1184.12085599608</v>
+        <v>1301.426733423318</v>
       </c>
       <c r="AC4" t="n">
-        <v>1071.110023423873</v>
+        <v>1177.220392549288</v>
       </c>
       <c r="AD4" t="n">
-        <v>865430.9866069054</v>
+        <v>951165.5978356255</v>
       </c>
       <c r="AE4" t="n">
-        <v>1184120.85599608</v>
+        <v>1301426.733423318</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.651766820597153e-06</v>
+        <v>2.389730823462152e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.54817708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1071110.023423873</v>
+        <v>1177220.392549288</v>
       </c>
     </row>
     <row r="5">
@@ -14227,28 +14227,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>784.0685390936853</v>
+        <v>861.1359037680559</v>
       </c>
       <c r="AB5" t="n">
-        <v>1072.797165850639</v>
+        <v>1178.244134170284</v>
       </c>
       <c r="AC5" t="n">
-        <v>970.4109100221324</v>
+        <v>1065.7941676811</v>
       </c>
       <c r="AD5" t="n">
-        <v>784068.5390936853</v>
+        <v>861135.9037680558</v>
       </c>
       <c r="AE5" t="n">
-        <v>1072797.165850639</v>
+        <v>1178244.134170284</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.756984489415319e-06</v>
+        <v>2.541956853923704e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.43489583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>970410.9100221323</v>
+        <v>1065794.1676811</v>
       </c>
     </row>
     <row r="6">
@@ -14333,28 +14333,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>734.4442655879145</v>
+        <v>811.5968816083056</v>
       </c>
       <c r="AB6" t="n">
-        <v>1004.899045571607</v>
+        <v>1110.462658543902</v>
       </c>
       <c r="AC6" t="n">
-        <v>908.992891046921</v>
+        <v>1004.481660956601</v>
       </c>
       <c r="AD6" t="n">
-        <v>734444.2655879145</v>
+        <v>811596.8816083056</v>
       </c>
       <c r="AE6" t="n">
-        <v>1004899.045571607</v>
+        <v>1110462.658543902</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.820322137997273e-06</v>
+        <v>2.633592022528913e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.82942708333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>908992.891046921</v>
+        <v>1004481.660956601</v>
       </c>
     </row>
     <row r="7">
@@ -14439,28 +14439,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>705.7434179437093</v>
+        <v>774.3141282643222</v>
       </c>
       <c r="AB7" t="n">
-        <v>965.6292796327713</v>
+        <v>1059.45075061967</v>
       </c>
       <c r="AC7" t="n">
-        <v>873.4709764538246</v>
+        <v>958.3382579289957</v>
       </c>
       <c r="AD7" t="n">
-        <v>705743.4179437093</v>
+        <v>774314.1282643222</v>
       </c>
       <c r="AE7" t="n">
-        <v>965629.2796327713</v>
+        <v>1059450.75061967</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.863802069118912e-06</v>
+        <v>2.696497591467407e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.43880208333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>873470.9764538247</v>
+        <v>958338.2579289958</v>
       </c>
     </row>
     <row r="8">
@@ -14545,28 +14545,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>685.9316117837383</v>
+        <v>754.502322104351</v>
       </c>
       <c r="AB8" t="n">
-        <v>938.5218924094971</v>
+        <v>1032.343363396396</v>
       </c>
       <c r="AC8" t="n">
-        <v>848.9506802216829</v>
+        <v>933.8179616968541</v>
       </c>
       <c r="AD8" t="n">
-        <v>685931.6117837382</v>
+        <v>754502.322104351</v>
       </c>
       <c r="AE8" t="n">
-        <v>938521.8924094972</v>
+        <v>1032343.363396396</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.892976914676722e-06</v>
+        <v>2.738706955906657e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.18489583333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>848950.6802216829</v>
+        <v>933817.9616968541</v>
       </c>
     </row>
     <row r="9">
@@ -14651,28 +14651,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>657.6029740281372</v>
+        <v>734.6702491939564</v>
       </c>
       <c r="AB9" t="n">
-        <v>899.7614004609904</v>
+        <v>1005.208246311087</v>
       </c>
       <c r="AC9" t="n">
-        <v>813.8894352240495</v>
+        <v>909.2725821017907</v>
       </c>
       <c r="AD9" t="n">
-        <v>657602.9740281372</v>
+        <v>734670.2491939564</v>
       </c>
       <c r="AE9" t="n">
-        <v>899761.4004609905</v>
+        <v>1005208.246311087</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.920551849349103e-06</v>
+        <v>2.778601613263754e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.95052083333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>813889.4352240495</v>
+        <v>909272.5821017907</v>
       </c>
     </row>
     <row r="10">
@@ -14757,28 +14757,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>642.4366617661354</v>
+        <v>711.092623432769</v>
       </c>
       <c r="AB10" t="n">
-        <v>879.0101829336451</v>
+        <v>972.9482985731935</v>
       </c>
       <c r="AC10" t="n">
-        <v>795.1186847729972</v>
+        <v>880.0914784988806</v>
       </c>
       <c r="AD10" t="n">
-        <v>642436.6617661355</v>
+        <v>711092.623432769</v>
       </c>
       <c r="AE10" t="n">
-        <v>879010.1829336451</v>
+        <v>972948.2985731935</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.937680307063688e-06</v>
+        <v>2.803382594966797e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.810546875</v>
       </c>
       <c r="AH10" t="n">
-        <v>795118.6847729972</v>
+        <v>880091.4784988806</v>
       </c>
     </row>
     <row r="11">
@@ -14863,28 +14863,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>629.4757072444729</v>
+        <v>698.1316689111064</v>
       </c>
       <c r="AB11" t="n">
-        <v>861.2764331601484</v>
+        <v>955.2145487996966</v>
       </c>
       <c r="AC11" t="n">
-        <v>779.0774191884088</v>
+        <v>864.0502129142923</v>
       </c>
       <c r="AD11" t="n">
-        <v>629475.7072444729</v>
+        <v>698131.6689111064</v>
       </c>
       <c r="AE11" t="n">
-        <v>861276.4331601483</v>
+        <v>955214.5487996966</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.95311474148782e-06</v>
+        <v>2.825712710347561e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.68684895833333</v>
       </c>
       <c r="AH11" t="n">
-        <v>779077.4191884089</v>
+        <v>864050.2129142922</v>
       </c>
     </row>
     <row r="12">
@@ -14969,28 +14969,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>613.6080547904963</v>
+        <v>682.2640164571299</v>
       </c>
       <c r="AB12" t="n">
-        <v>839.5656110411971</v>
+        <v>933.5037266807453</v>
       </c>
       <c r="AC12" t="n">
-        <v>759.4386474611604</v>
+        <v>844.4114411870435</v>
       </c>
       <c r="AD12" t="n">
-        <v>613608.0547904964</v>
+        <v>682264.0164571299</v>
       </c>
       <c r="AE12" t="n">
-        <v>839565.6110411971</v>
+        <v>933503.7266807454</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.968455063506926e-06</v>
+        <v>2.847906666488199e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.56315104166667</v>
       </c>
       <c r="AH12" t="n">
-        <v>759438.6474611603</v>
+        <v>844411.4411870434</v>
       </c>
     </row>
     <row r="13">
@@ -15075,28 +15075,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>602.2004099373593</v>
+        <v>670.6857794034006</v>
       </c>
       <c r="AB13" t="n">
-        <v>823.9571680833631</v>
+        <v>917.6618719480645</v>
       </c>
       <c r="AC13" t="n">
-        <v>745.3198523926346</v>
+        <v>830.0815108358667</v>
       </c>
       <c r="AD13" t="n">
-        <v>602200.4099373593</v>
+        <v>670685.7794034006</v>
       </c>
       <c r="AE13" t="n">
-        <v>823957.1680833631</v>
+        <v>917661.8719480644</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.977866304009445e-06</v>
+        <v>2.86152259050086e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.48828125</v>
       </c>
       <c r="AH13" t="n">
-        <v>745319.8523926346</v>
+        <v>830081.5108358667</v>
       </c>
     </row>
     <row r="14">
@@ -15181,28 +15181,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>595.2534546510091</v>
+        <v>663.7388241170503</v>
       </c>
       <c r="AB14" t="n">
-        <v>814.4520373825413</v>
+        <v>908.1567412472427</v>
       </c>
       <c r="AC14" t="n">
-        <v>736.7218780253646</v>
+        <v>821.4835364685969</v>
       </c>
       <c r="AD14" t="n">
-        <v>595253.4546510091</v>
+        <v>663738.8241170503</v>
       </c>
       <c r="AE14" t="n">
-        <v>814452.0373825413</v>
+        <v>908156.7412472428</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.98266603666573e-06</v>
+        <v>2.868466711747317e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.45247395833333</v>
       </c>
       <c r="AH14" t="n">
-        <v>736721.8780253646</v>
+        <v>821483.5364685969</v>
       </c>
     </row>
     <row r="15">
@@ -15287,28 +15287,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>595.1406426053592</v>
+        <v>663.6260120714004</v>
       </c>
       <c r="AB15" t="n">
-        <v>814.2976829647669</v>
+        <v>908.0023868294684</v>
       </c>
       <c r="AC15" t="n">
-        <v>736.5822549765851</v>
+        <v>821.3439134198171</v>
       </c>
       <c r="AD15" t="n">
-        <v>595140.6426053592</v>
+        <v>663626.0120714004</v>
       </c>
       <c r="AE15" t="n">
-        <v>814297.6829647669</v>
+        <v>908002.3868294684</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.985489408816486e-06</v>
+        <v>2.872551488951116e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>15.4296875</v>
       </c>
       <c r="AH15" t="n">
-        <v>736582.254976585</v>
+        <v>821343.9134198171</v>
       </c>
     </row>
   </sheetData>
@@ -15584,28 +15584,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1014.096468547383</v>
+        <v>1111.075587145178</v>
       </c>
       <c r="AB2" t="n">
-        <v>1387.531527045218</v>
+        <v>1520.222635527478</v>
       </c>
       <c r="AC2" t="n">
-        <v>1255.107465516751</v>
+        <v>1375.134720838604</v>
       </c>
       <c r="AD2" t="n">
-        <v>1014096.468547383</v>
+        <v>1111075.587145178</v>
       </c>
       <c r="AE2" t="n">
-        <v>1387531.527045218</v>
+        <v>1520222.635527478</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.424293198417287e-06</v>
+        <v>2.138839181937671e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.271484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1255107.465516751</v>
+        <v>1375134.720838604</v>
       </c>
     </row>
     <row r="3">
@@ -15690,28 +15690,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>668.8008201743985</v>
+        <v>741.5778519271682</v>
       </c>
       <c r="AB3" t="n">
-        <v>915.0827875724113</v>
+        <v>1014.659533112592</v>
       </c>
       <c r="AC3" t="n">
-        <v>827.7485706532585</v>
+        <v>917.8218513559248</v>
       </c>
       <c r="AD3" t="n">
-        <v>668800.8201743985</v>
+        <v>741577.8519271682</v>
       </c>
       <c r="AE3" t="n">
-        <v>915082.7875724114</v>
+        <v>1014659.533112592</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.839088429695579e-06</v>
+        <v>2.761730798723293e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.02083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>827748.5706532585</v>
+        <v>917821.8513559247</v>
       </c>
     </row>
     <row r="4">
@@ -15796,28 +15796,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>577.9722464100563</v>
+        <v>650.7491886542751</v>
       </c>
       <c r="AB4" t="n">
-        <v>790.8071258741692</v>
+        <v>890.3837489448018</v>
       </c>
       <c r="AC4" t="n">
-        <v>715.3336036855096</v>
+        <v>805.4067736069495</v>
       </c>
       <c r="AD4" t="n">
-        <v>577972.2464100563</v>
+        <v>650749.1886542751</v>
       </c>
       <c r="AE4" t="n">
-        <v>790807.1258741692</v>
+        <v>890383.7489448019</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.984989648748547e-06</v>
+        <v>2.980828414544058e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.69596354166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>715333.6036855096</v>
+        <v>805406.7736069495</v>
       </c>
     </row>
     <row r="5">
@@ -15902,28 +15902,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>537.5403436538903</v>
+        <v>602.2215661734613</v>
       </c>
       <c r="AB5" t="n">
-        <v>735.4864127935227</v>
+        <v>823.9861149789447</v>
       </c>
       <c r="AC5" t="n">
-        <v>665.2926218181716</v>
+        <v>745.3460366371293</v>
       </c>
       <c r="AD5" t="n">
-        <v>537540.3436538903</v>
+        <v>602221.5661734613</v>
       </c>
       <c r="AE5" t="n">
-        <v>735486.4127935227</v>
+        <v>823986.1149789446</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.062267405385813e-06</v>
+        <v>3.096875232693368e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.07096354166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>665292.6218181716</v>
+        <v>745346.0366371293</v>
       </c>
     </row>
     <row r="6">
@@ -16008,28 +16008,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>501.3048418620324</v>
+        <v>566.0713157276239</v>
       </c>
       <c r="AB6" t="n">
-        <v>685.9074006443871</v>
+        <v>774.5237474824584</v>
       </c>
       <c r="AC6" t="n">
-        <v>620.445361003969</v>
+        <v>700.6042880736387</v>
       </c>
       <c r="AD6" t="n">
-        <v>501304.8418620324</v>
+        <v>566071.3157276239</v>
       </c>
       <c r="AE6" t="n">
-        <v>685907.400644387</v>
+        <v>774523.7474824584</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.107982441920902e-06</v>
+        <v>3.16552479968815e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.72265625</v>
       </c>
       <c r="AH6" t="n">
-        <v>620445.361003969</v>
+        <v>700604.2880736387</v>
       </c>
     </row>
     <row r="7">
@@ -16114,28 +16114,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>486.5685188909815</v>
+        <v>551.334992756573</v>
       </c>
       <c r="AB7" t="n">
-        <v>665.7445134347089</v>
+        <v>754.3608602727803</v>
       </c>
       <c r="AC7" t="n">
-        <v>602.2067914507927</v>
+        <v>682.3657185204625</v>
       </c>
       <c r="AD7" t="n">
-        <v>486568.5188909815</v>
+        <v>551334.992756573</v>
       </c>
       <c r="AE7" t="n">
-        <v>665744.5134347089</v>
+        <v>754360.8602727803</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.129261824183338e-06</v>
+        <v>3.197479720627815e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.56640625</v>
       </c>
       <c r="AH7" t="n">
-        <v>602206.7914507927</v>
+        <v>682365.7185204624</v>
       </c>
     </row>
     <row r="8">
@@ -16220,28 +16220,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>488.5407751996975</v>
+        <v>553.3072490652889</v>
       </c>
       <c r="AB8" t="n">
-        <v>668.4430415261015</v>
+        <v>757.0593883641731</v>
       </c>
       <c r="AC8" t="n">
-        <v>604.6477758085507</v>
+        <v>684.8067028782204</v>
       </c>
       <c r="AD8" t="n">
-        <v>488540.7751996975</v>
+        <v>553307.2490652889</v>
       </c>
       <c r="AE8" t="n">
-        <v>668443.0415261015</v>
+        <v>757059.388364173</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.12895637850493e-06</v>
+        <v>3.197021037552126e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.56640625</v>
       </c>
       <c r="AH8" t="n">
-        <v>604647.7758085507</v>
+        <v>684806.7028782205</v>
       </c>
     </row>
   </sheetData>
@@ -16517,28 +16517,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>743.3544086883169</v>
+        <v>829.7091797466302</v>
       </c>
       <c r="AB2" t="n">
-        <v>1017.090296449349</v>
+        <v>1135.244703914957</v>
       </c>
       <c r="AC2" t="n">
-        <v>920.020626051419</v>
+        <v>1026.898542699261</v>
       </c>
       <c r="AD2" t="n">
-        <v>743354.4086883169</v>
+        <v>829709.1797466301</v>
       </c>
       <c r="AE2" t="n">
-        <v>1017090.296449349</v>
+        <v>1135244.703914957</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.66616670546264e-06</v>
+        <v>2.555477767598302e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.71940104166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>920020.6260514189</v>
+        <v>1026898.542699261</v>
       </c>
     </row>
     <row r="3">
@@ -16623,28 +16623,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>535.5721038384005</v>
+        <v>598.437729283595</v>
       </c>
       <c r="AB3" t="n">
-        <v>732.7933802453572</v>
+        <v>818.8089024151276</v>
       </c>
       <c r="AC3" t="n">
-        <v>662.8566085167082</v>
+        <v>740.6629299741394</v>
       </c>
       <c r="AD3" t="n">
-        <v>535572.1038384004</v>
+        <v>598437.729283595</v>
       </c>
       <c r="AE3" t="n">
-        <v>732793.3802453572</v>
+        <v>818808.9024151276</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.025914475349927e-06</v>
+        <v>3.10723974008038e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.041015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>662856.6085167082</v>
+        <v>740662.9299741394</v>
       </c>
     </row>
     <row r="4">
@@ -16729,28 +16729,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>470.1842890672783</v>
+        <v>532.9645736579013</v>
       </c>
       <c r="AB4" t="n">
-        <v>643.3268873687125</v>
+        <v>729.2256424162854</v>
       </c>
       <c r="AC4" t="n">
-        <v>581.928672153199</v>
+        <v>659.6293705786916</v>
       </c>
       <c r="AD4" t="n">
-        <v>470184.2890672783</v>
+        <v>532964.5736579013</v>
       </c>
       <c r="AE4" t="n">
-        <v>643326.8873687125</v>
+        <v>729225.6424162854</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.151592867837084e-06</v>
+        <v>3.299998565962238e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.044921875</v>
       </c>
       <c r="AH4" t="n">
-        <v>581928.6721531991</v>
+        <v>659629.3705786916</v>
       </c>
     </row>
     <row r="5">
@@ -16835,28 +16835,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>443.9858898639864</v>
+        <v>506.8514258006299</v>
       </c>
       <c r="AB5" t="n">
-        <v>607.4810817869675</v>
+        <v>693.4964814871895</v>
       </c>
       <c r="AC5" t="n">
-        <v>549.5039399462717</v>
+        <v>627.3101506224764</v>
       </c>
       <c r="AD5" t="n">
-        <v>443985.8898639864</v>
+        <v>506851.4258006299</v>
       </c>
       <c r="AE5" t="n">
-        <v>607481.0817869675</v>
+        <v>693496.4814871895</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.190091818447073e-06</v>
+        <v>3.359046206295667e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.76171875</v>
       </c>
       <c r="AH5" t="n">
-        <v>549503.9399462717</v>
+        <v>627310.1506224764</v>
       </c>
     </row>
     <row r="6">
@@ -16941,28 +16941,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>446.2843603527124</v>
+        <v>509.149896289356</v>
       </c>
       <c r="AB6" t="n">
-        <v>610.6259505110038</v>
+        <v>696.6413502112259</v>
       </c>
       <c r="AC6" t="n">
-        <v>552.348666813137</v>
+        <v>630.1548774893416</v>
       </c>
       <c r="AD6" t="n">
-        <v>446284.3603527124</v>
+        <v>509149.896289356</v>
       </c>
       <c r="AE6" t="n">
-        <v>610625.9505110038</v>
+        <v>696641.3502112259</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.190197876162252e-06</v>
+        <v>3.359208871971518e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.76171875</v>
       </c>
       <c r="AH6" t="n">
-        <v>552348.666813137</v>
+        <v>630154.8774893417</v>
       </c>
     </row>
   </sheetData>
@@ -31195,28 +31195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>586.9821544759158</v>
+        <v>655.9965847952894</v>
       </c>
       <c r="AB2" t="n">
-        <v>803.1348795789685</v>
+        <v>897.563467843717</v>
       </c>
       <c r="AC2" t="n">
-        <v>726.484813878834</v>
+        <v>811.9012702109509</v>
       </c>
       <c r="AD2" t="n">
-        <v>586982.1544759157</v>
+        <v>655996.5847952894</v>
       </c>
       <c r="AE2" t="n">
-        <v>803134.8795789685</v>
+        <v>897563.4678437171</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.868172928113215e-06</v>
+        <v>2.91898334978298e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.11783854166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>726484.813878834</v>
+        <v>811901.2702109509</v>
       </c>
     </row>
     <row r="3">
@@ -31301,28 +31301,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>436.182824865229</v>
+        <v>497.4436542399397</v>
       </c>
       <c r="AB3" t="n">
-        <v>596.8045840087354</v>
+        <v>680.6243533962642</v>
       </c>
       <c r="AC3" t="n">
-        <v>539.8463921314356</v>
+        <v>615.6665203704036</v>
       </c>
       <c r="AD3" t="n">
-        <v>436182.824865229</v>
+        <v>497443.6542399397</v>
       </c>
       <c r="AE3" t="n">
-        <v>596804.5840087355</v>
+        <v>680624.3533962641</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.18326528479287e-06</v>
+        <v>3.411308941783023e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.357421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>539846.3921314356</v>
+        <v>615666.5203704037</v>
       </c>
     </row>
     <row r="4">
@@ -31407,28 +31407,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>419.1430880950513</v>
+        <v>480.403917469762</v>
       </c>
       <c r="AB4" t="n">
-        <v>573.4900644196472</v>
+        <v>657.3098338071759</v>
       </c>
       <c r="AC4" t="n">
-        <v>518.756977569796</v>
+        <v>594.5771058087641</v>
       </c>
       <c r="AD4" t="n">
-        <v>419143.0880950513</v>
+        <v>480403.917469762</v>
       </c>
       <c r="AE4" t="n">
-        <v>573490.0644196472</v>
+        <v>657309.8338071759</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.229344250602568e-06</v>
+        <v>3.483306416936232e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.01888020833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>518756.977569796</v>
+        <v>594577.1058087641</v>
       </c>
     </row>
   </sheetData>
@@ -31704,28 +31704,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>363.4193807283139</v>
+        <v>428.874593960204</v>
       </c>
       <c r="AB2" t="n">
-        <v>497.2464296440104</v>
+        <v>586.805140068088</v>
       </c>
       <c r="AC2" t="n">
-        <v>449.7899282885325</v>
+        <v>530.8012810861754</v>
       </c>
       <c r="AD2" t="n">
-        <v>363419.3807283139</v>
+        <v>428874.593960204</v>
       </c>
       <c r="AE2" t="n">
-        <v>497246.4296440104</v>
+        <v>586805.140068088</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.232973923152318e-06</v>
+        <v>3.639024308386236e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.16796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>449789.9282885325</v>
+        <v>530801.2810861755</v>
       </c>
     </row>
     <row r="3">
@@ -31810,28 +31810,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>366.9420322818349</v>
+        <v>432.397245513725</v>
       </c>
       <c r="AB3" t="n">
-        <v>502.066276907956</v>
+        <v>591.6249873320335</v>
       </c>
       <c r="AC3" t="n">
-        <v>454.1497760943052</v>
+        <v>535.1611288919484</v>
       </c>
       <c r="AD3" t="n">
-        <v>366942.0322818349</v>
+        <v>432397.245513725</v>
       </c>
       <c r="AE3" t="n">
-        <v>502066.276907956</v>
+        <v>591624.9873320335</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.232973923152318e-06</v>
+        <v>3.639024308386236e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.16796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>454149.7760943052</v>
+        <v>535161.1288919484</v>
       </c>
     </row>
   </sheetData>
@@ -32107,28 +32107,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1339.254577225762</v>
+        <v>1447.032869189617</v>
       </c>
       <c r="AB2" t="n">
-        <v>1832.427196302314</v>
+        <v>1979.894210209922</v>
       </c>
       <c r="AC2" t="n">
-        <v>1657.542916514943</v>
+        <v>1790.935885586463</v>
       </c>
       <c r="AD2" t="n">
-        <v>1339254.577225762</v>
+        <v>1447032.869189617</v>
       </c>
       <c r="AE2" t="n">
-        <v>1832427.196302314</v>
+        <v>1979894.210209922</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.223966038289064e-06</v>
+        <v>1.808263930656807e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.18815104166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1657542.916514943</v>
+        <v>1790935.885586463</v>
       </c>
     </row>
     <row r="3">
@@ -32213,28 +32213,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>805.3182518939913</v>
+        <v>879.9931021555329</v>
       </c>
       <c r="AB3" t="n">
-        <v>1101.871960375183</v>
+        <v>1204.04538492491</v>
       </c>
       <c r="AC3" t="n">
-        <v>996.7108469639842</v>
+        <v>1089.132983275987</v>
       </c>
       <c r="AD3" t="n">
-        <v>805318.2518939913</v>
+        <v>879993.1021555329</v>
       </c>
       <c r="AE3" t="n">
-        <v>1101871.960375183</v>
+        <v>1204045.38492491</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.680602173098493e-06</v>
+        <v>2.482889390987937e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.07552083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>996710.8469639842</v>
+        <v>1089132.983275987</v>
       </c>
     </row>
     <row r="4">
@@ -32319,28 +32319,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>686.8966474511444</v>
+        <v>761.400816003543</v>
       </c>
       <c r="AB4" t="n">
-        <v>939.8422967840114</v>
+        <v>1041.782187089342</v>
       </c>
       <c r="AC4" t="n">
-        <v>850.1450670558927</v>
+        <v>942.3559573040176</v>
       </c>
       <c r="AD4" t="n">
-        <v>686896.6474511444</v>
+        <v>761400.816003543</v>
       </c>
       <c r="AE4" t="n">
-        <v>939842.2967840114</v>
+        <v>1041782.187089342</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.845944435411418e-06</v>
+        <v>2.72716287554605e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.36653645833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>850145.0670558927</v>
+        <v>942355.9573040176</v>
       </c>
     </row>
     <row r="5">
@@ -32425,28 +32425,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>627.3309299992499</v>
+        <v>701.9203498976691</v>
       </c>
       <c r="AB5" t="n">
-        <v>858.3418543123399</v>
+        <v>960.3983892703201</v>
       </c>
       <c r="AC5" t="n">
-        <v>776.4229124271283</v>
+        <v>868.7393149259652</v>
       </c>
       <c r="AD5" t="n">
-        <v>627330.9299992499</v>
+        <v>701920.349897669</v>
       </c>
       <c r="AE5" t="n">
-        <v>858341.8543123399</v>
+        <v>960398.3892703201</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.936838365199881e-06</v>
+        <v>2.861447822685501e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.54947916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>776422.9124271283</v>
+        <v>868739.3149259653</v>
       </c>
     </row>
     <row r="6">
@@ -32531,28 +32531,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>597.4179159613174</v>
+        <v>663.7102297290663</v>
       </c>
       <c r="AB6" t="n">
-        <v>817.413548836599</v>
+        <v>908.1176171441076</v>
       </c>
       <c r="AC6" t="n">
-        <v>739.4007469827544</v>
+        <v>821.4481463149539</v>
       </c>
       <c r="AD6" t="n">
-        <v>597417.9159613174</v>
+        <v>663710.2297290664</v>
       </c>
       <c r="AE6" t="n">
-        <v>817413.548836599</v>
+        <v>908117.6171441076</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.986962970034472e-06</v>
+        <v>2.935500951714732e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.1328125</v>
       </c>
       <c r="AH6" t="n">
-        <v>739400.7469827544</v>
+        <v>821448.1463149539</v>
       </c>
     </row>
     <row r="7">
@@ -32637,28 +32637,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>566.9013465031649</v>
+        <v>641.4054255470126</v>
       </c>
       <c r="AB7" t="n">
-        <v>775.6594322079271</v>
+        <v>877.5992000437097</v>
       </c>
       <c r="AC7" t="n">
-        <v>701.6315846428522</v>
+        <v>793.8423641097504</v>
       </c>
       <c r="AD7" t="n">
-        <v>566901.3465031649</v>
+        <v>641405.4255470126</v>
       </c>
       <c r="AE7" t="n">
-        <v>775659.4322079271</v>
+        <v>877599.2000437097</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.022020650429589e-06</v>
+        <v>2.987294495790187e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.85286458333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>701631.5846428522</v>
+        <v>793842.3641097504</v>
       </c>
     </row>
     <row r="8">
@@ -32743,28 +32743,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>544.9466698872549</v>
+        <v>611.3242350010244</v>
       </c>
       <c r="AB8" t="n">
-        <v>745.6200750900649</v>
+        <v>836.4407880502231</v>
       </c>
       <c r="AC8" t="n">
-        <v>674.4591416078164</v>
+        <v>756.6120531907283</v>
       </c>
       <c r="AD8" t="n">
-        <v>544946.6698872548</v>
+        <v>611324.2350010243</v>
       </c>
       <c r="AE8" t="n">
-        <v>745620.0750900649</v>
+        <v>836440.7880502231</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.049791060180777e-06</v>
+        <v>3.028321966097147e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.63802083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>674459.1416078163</v>
+        <v>756612.0531907283</v>
       </c>
     </row>
     <row r="9">
@@ -32849,28 +32849,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>530.4324945936445</v>
+        <v>596.8100597074139</v>
       </c>
       <c r="AB9" t="n">
-        <v>725.7611401331247</v>
+        <v>816.581853093283</v>
       </c>
       <c r="AC9" t="n">
-        <v>656.4955155309763</v>
+        <v>738.6484271138884</v>
       </c>
       <c r="AD9" t="n">
-        <v>530432.4945936445</v>
+        <v>596810.0597074139</v>
       </c>
       <c r="AE9" t="n">
-        <v>725761.1401331248</v>
+        <v>816581.853093283</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.066925993857042e-06</v>
+        <v>3.053636788201443e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.5078125</v>
       </c>
       <c r="AH9" t="n">
-        <v>656495.5155309762</v>
+        <v>738648.4271138883</v>
       </c>
     </row>
     <row r="10">
@@ -32955,28 +32955,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>529.4186744085316</v>
+        <v>595.625647321709</v>
       </c>
       <c r="AB10" t="n">
-        <v>724.3739866292636</v>
+        <v>814.9612878145748</v>
       </c>
       <c r="AC10" t="n">
-        <v>655.2407500106415</v>
+        <v>737.1825263109023</v>
       </c>
       <c r="AD10" t="n">
-        <v>529418.6744085316</v>
+        <v>595625.6473217091</v>
       </c>
       <c r="AE10" t="n">
-        <v>724373.9866292636</v>
+        <v>814961.2878145748</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.068895526463509e-06</v>
+        <v>3.056546537868604e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.49479166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>655240.7500106415</v>
+        <v>737182.5263109023</v>
       </c>
     </row>
     <row r="11">
@@ -33061,28 +33061,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>531.2960492873326</v>
+        <v>597.5030222005099</v>
       </c>
       <c r="AB11" t="n">
-        <v>726.9426937623733</v>
+        <v>817.5299949476844</v>
       </c>
       <c r="AC11" t="n">
-        <v>657.5643033401701</v>
+        <v>739.5060796404312</v>
       </c>
       <c r="AD11" t="n">
-        <v>531296.0492873326</v>
+        <v>597503.0222005099</v>
       </c>
       <c r="AE11" t="n">
-        <v>726942.6937623733</v>
+        <v>817529.9949476843</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.068797049833186e-06</v>
+        <v>3.056401050385245e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.49479166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>657564.3033401701</v>
+        <v>739506.0796404311</v>
       </c>
     </row>
   </sheetData>
@@ -33358,28 +33358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1902.669668922566</v>
+        <v>2039.048053519301</v>
       </c>
       <c r="AB2" t="n">
-        <v>2603.31658088147</v>
+        <v>2789.91550327642</v>
       </c>
       <c r="AC2" t="n">
-        <v>2354.859700179911</v>
+        <v>2523.64988331472</v>
       </c>
       <c r="AD2" t="n">
-        <v>1902669.668922566</v>
+        <v>2039048.053519301</v>
       </c>
       <c r="AE2" t="n">
-        <v>2603316.58088147</v>
+        <v>2789915.50327642</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.000575143495975e-06</v>
+        <v>1.45300422119321e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.87239583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2354859.700179911</v>
+        <v>2523649.88331472</v>
       </c>
     </row>
     <row r="3">
@@ -33464,28 +33464,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>997.7759504016757</v>
+        <v>1091.509420794877</v>
       </c>
       <c r="AB3" t="n">
-        <v>1365.201074107816</v>
+        <v>1493.451343528658</v>
       </c>
       <c r="AC3" t="n">
-        <v>1234.908199666707</v>
+        <v>1350.918443374407</v>
       </c>
       <c r="AD3" t="n">
-        <v>997775.9504016757</v>
+        <v>1091509.420794877</v>
       </c>
       <c r="AE3" t="n">
-        <v>1365201.074107816</v>
+        <v>1493451.343528658</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.499723972667905e-06</v>
+        <v>2.177852685104087e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.59895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1234908.199666707</v>
+        <v>1350918.443374407</v>
       </c>
     </row>
     <row r="4">
@@ -33570,28 +33570,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>830.250208722916</v>
+        <v>906.9258029432552</v>
       </c>
       <c r="AB4" t="n">
-        <v>1135.984963628825</v>
+        <v>1240.895894329572</v>
       </c>
       <c r="AC4" t="n">
-        <v>1027.568153064999</v>
+        <v>1122.466531783083</v>
       </c>
       <c r="AD4" t="n">
-        <v>830250.208722916</v>
+        <v>906925.8029432553</v>
       </c>
       <c r="AE4" t="n">
-        <v>1135984.963628825</v>
+        <v>1240895.894329572</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.688185869005444e-06</v>
+        <v>2.45153121159211e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.29752604166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1027568.153064999</v>
+        <v>1122466.531783083</v>
       </c>
     </row>
     <row r="5">
@@ -33676,28 +33676,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>755.1687698187715</v>
+        <v>831.7590231845392</v>
       </c>
       <c r="AB5" t="n">
-        <v>1033.255226560864</v>
+        <v>1138.049390139414</v>
       </c>
       <c r="AC5" t="n">
-        <v>934.6427979207134</v>
+        <v>1029.435553606858</v>
       </c>
       <c r="AD5" t="n">
-        <v>755168.7698187715</v>
+        <v>831759.0231845392</v>
       </c>
       <c r="AE5" t="n">
-        <v>1033255.226560864</v>
+        <v>1138049.390139414</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.789249272630559e-06</v>
+        <v>2.598292354950491e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.265625</v>
       </c>
       <c r="AH5" t="n">
-        <v>934642.7979207134</v>
+        <v>1029435.553606858</v>
       </c>
     </row>
     <row r="6">
@@ -33782,28 +33782,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>708.092980865163</v>
+        <v>784.7684855769512</v>
       </c>
       <c r="AB6" t="n">
-        <v>968.8440552773046</v>
+        <v>1073.754863508503</v>
       </c>
       <c r="AC6" t="n">
-        <v>876.3789384228097</v>
+        <v>971.2772063596668</v>
       </c>
       <c r="AD6" t="n">
-        <v>708092.980865163</v>
+        <v>784768.4855769512</v>
       </c>
       <c r="AE6" t="n">
-        <v>968844.0552773046</v>
+        <v>1073754.863508503</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.849792419590956e-06</v>
+        <v>2.686211237075042e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.69921875</v>
       </c>
       <c r="AH6" t="n">
-        <v>876378.9384228097</v>
+        <v>971277.2063596668</v>
       </c>
     </row>
     <row r="7">
@@ -33888,28 +33888,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>680.4979364787363</v>
+        <v>748.6445478583688</v>
       </c>
       <c r="AB7" t="n">
-        <v>931.0872981403573</v>
+        <v>1024.328498246283</v>
       </c>
       <c r="AC7" t="n">
-        <v>842.2256331950713</v>
+        <v>926.5680240277333</v>
       </c>
       <c r="AD7" t="n">
-        <v>680497.9364787362</v>
+        <v>748644.5478583688</v>
       </c>
       <c r="AE7" t="n">
-        <v>931087.2981403574</v>
+        <v>1024328.498246283</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.893159532695818e-06</v>
+        <v>2.749187615023193e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.31510416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>842225.6331950712</v>
+        <v>926568.0240277332</v>
       </c>
     </row>
     <row r="8">
@@ -33994,28 +33994,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>659.1902140515758</v>
+        <v>727.3368254312084</v>
       </c>
       <c r="AB8" t="n">
-        <v>901.9331322851472</v>
+        <v>995.1743323910722</v>
       </c>
       <c r="AC8" t="n">
-        <v>815.8539000109535</v>
+        <v>900.1962908436154</v>
       </c>
       <c r="AD8" t="n">
-        <v>659190.2140515759</v>
+        <v>727336.8254312084</v>
       </c>
       <c r="AE8" t="n">
-        <v>901933.1322851472</v>
+        <v>995174.3323910722</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.92494942961076e-06</v>
+        <v>2.795351918333106e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.04817708333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>815853.9000109534</v>
+        <v>900196.2908436154</v>
       </c>
     </row>
     <row r="9">
@@ -34100,28 +34100,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>632.2768957140104</v>
+        <v>708.8670595712268</v>
       </c>
       <c r="AB9" t="n">
-        <v>865.1091428038826</v>
+        <v>969.9031839128834</v>
       </c>
       <c r="AC9" t="n">
-        <v>782.5443404029871</v>
+        <v>877.3369853079054</v>
       </c>
       <c r="AD9" t="n">
-        <v>632276.8957140103</v>
+        <v>708867.0595712268</v>
       </c>
       <c r="AE9" t="n">
-        <v>865109.1428038826</v>
+        <v>969903.1839128834</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.948008966775927e-06</v>
+        <v>2.828838263719103e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.85611979166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>782544.3404029871</v>
+        <v>877336.9853079054</v>
       </c>
     </row>
     <row r="10">
@@ -34206,28 +34206,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>616.290142444985</v>
+        <v>684.522005170638</v>
       </c>
       <c r="AB10" t="n">
-        <v>843.2353616954247</v>
+        <v>936.5932064539988</v>
       </c>
       <c r="AC10" t="n">
-        <v>762.7581622634756</v>
+        <v>847.2060653468498</v>
       </c>
       <c r="AD10" t="n">
-        <v>616290.142444985</v>
+        <v>684522.005170638</v>
       </c>
       <c r="AE10" t="n">
-        <v>843235.3616954247</v>
+        <v>936593.2064539988</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.965849267134164e-06</v>
+        <v>2.854745395128846e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.712890625</v>
       </c>
       <c r="AH10" t="n">
-        <v>762758.1622634756</v>
+        <v>847206.0653468497</v>
       </c>
     </row>
     <row r="11">
@@ -34312,28 +34312,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>602.9896118132549</v>
+        <v>671.2214745389078</v>
       </c>
       <c r="AB11" t="n">
-        <v>825.0369889070926</v>
+        <v>918.394833665667</v>
       </c>
       <c r="AC11" t="n">
-        <v>746.2966166324856</v>
+        <v>830.7445197158596</v>
       </c>
       <c r="AD11" t="n">
-        <v>602989.6118132549</v>
+        <v>671221.4745389079</v>
       </c>
       <c r="AE11" t="n">
-        <v>825036.9889070926</v>
+        <v>918394.833665667</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.979229492402841e-06</v>
+        <v>2.874175743686152e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.60872395833333</v>
       </c>
       <c r="AH11" t="n">
-        <v>746296.6166324855</v>
+        <v>830744.5197158596</v>
       </c>
     </row>
     <row r="12">
@@ -34418,28 +34418,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>590.0141606251178</v>
+        <v>658.246023350771</v>
       </c>
       <c r="AB12" t="n">
-        <v>807.2834041549778</v>
+        <v>900.6412489135521</v>
       </c>
       <c r="AC12" t="n">
-        <v>730.2374090917998</v>
+        <v>814.6853121751737</v>
       </c>
       <c r="AD12" t="n">
-        <v>590014.1606251178</v>
+        <v>658246.0233507711</v>
       </c>
       <c r="AE12" t="n">
-        <v>807283.4041549778</v>
+        <v>900641.2489135521</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.991660765524804e-06</v>
+        <v>2.892228053338686e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.51106770833333</v>
       </c>
       <c r="AH12" t="n">
-        <v>730237.4090917998</v>
+        <v>814685.3121751738</v>
       </c>
     </row>
     <row r="13">
@@ -34524,28 +34524,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>581.9474546856399</v>
+        <v>650.0087252107007</v>
       </c>
       <c r="AB13" t="n">
-        <v>796.2461812106345</v>
+        <v>889.3706141943619</v>
       </c>
       <c r="AC13" t="n">
-        <v>720.253563214425</v>
+        <v>804.4903310151481</v>
       </c>
       <c r="AD13" t="n">
-        <v>581947.4546856398</v>
+        <v>650008.7252107008</v>
       </c>
       <c r="AE13" t="n">
-        <v>796246.1812106345</v>
+        <v>889370.614194362</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.999916649201221e-06</v>
+        <v>2.904216991810215e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.44596354166667</v>
       </c>
       <c r="AH13" t="n">
-        <v>720253.563214425</v>
+        <v>804490.3310151481</v>
       </c>
     </row>
     <row r="14">
@@ -34630,28 +34630,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>582.3945406947722</v>
+        <v>650.4558112198331</v>
       </c>
       <c r="AB14" t="n">
-        <v>796.8579040123722</v>
+        <v>889.9823369960994</v>
       </c>
       <c r="AC14" t="n">
-        <v>720.8069040505229</v>
+        <v>805.043671851246</v>
       </c>
       <c r="AD14" t="n">
-        <v>582394.5406947723</v>
+        <v>650455.8112198331</v>
       </c>
       <c r="AE14" t="n">
-        <v>796857.9040123721</v>
+        <v>889982.3369960994</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.99982175398655e-06</v>
+        <v>2.904079187919738e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.44596354166667</v>
       </c>
       <c r="AH14" t="n">
-        <v>720806.9040505229</v>
+        <v>805043.671851246</v>
       </c>
     </row>
   </sheetData>
@@ -34927,28 +34927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>342.9451566390705</v>
+        <v>406.9008810253998</v>
       </c>
       <c r="AB2" t="n">
-        <v>469.2326929860895</v>
+        <v>556.7397366188917</v>
       </c>
       <c r="AC2" t="n">
-        <v>424.4497833397171</v>
+        <v>503.6052775451118</v>
       </c>
       <c r="AD2" t="n">
-        <v>342945.1566390705</v>
+        <v>406900.8810253998</v>
       </c>
       <c r="AE2" t="n">
-        <v>469232.6929860895</v>
+        <v>556739.7366188917</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.151417465263704e-06</v>
+        <v>3.586284735203506e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.45052083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>424449.7833397171</v>
+        <v>503605.2775451118</v>
       </c>
     </row>
   </sheetData>
@@ -35224,28 +35224,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>829.7889348669277</v>
+        <v>917.1568856009022</v>
       </c>
       <c r="AB2" t="n">
-        <v>1135.353828389095</v>
+        <v>1254.894512985276</v>
       </c>
       <c r="AC2" t="n">
-        <v>1026.997252486746</v>
+        <v>1135.129141921471</v>
       </c>
       <c r="AD2" t="n">
-        <v>829788.9348669277</v>
+        <v>917156.8856009023</v>
       </c>
       <c r="AE2" t="n">
-        <v>1135353.828389095</v>
+        <v>1254894.512985276</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.578755803421019e-06</v>
+        <v>2.402718911308237e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.54947916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1026997.252486746</v>
+        <v>1135129.141921471</v>
       </c>
     </row>
     <row r="3">
@@ -35330,28 +35330,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>577.967586104773</v>
+        <v>649.2798626865238</v>
       </c>
       <c r="AB3" t="n">
-        <v>790.8007494388826</v>
+        <v>888.3733523336374</v>
       </c>
       <c r="AC3" t="n">
-        <v>715.3278358082574</v>
+        <v>803.5882464267454</v>
       </c>
       <c r="AD3" t="n">
-        <v>577967.586104773</v>
+        <v>649279.8626865237</v>
       </c>
       <c r="AE3" t="n">
-        <v>790800.7494388826</v>
+        <v>888373.3523336374</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.958238282053465e-06</v>
+        <v>2.980255808366373e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.373046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>715327.8358082575</v>
+        <v>803588.2464267454</v>
       </c>
     </row>
     <row r="4">
@@ -35436,28 +35436,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>506.9529422017625</v>
+        <v>570.408018662269</v>
       </c>
       <c r="AB4" t="n">
-        <v>693.6353807058067</v>
+        <v>780.4574157594703</v>
       </c>
       <c r="AC4" t="n">
-        <v>627.4357934946149</v>
+        <v>705.9716553782486</v>
       </c>
       <c r="AD4" t="n">
-        <v>506952.9422017625</v>
+        <v>570408.018662269</v>
       </c>
       <c r="AE4" t="n">
-        <v>693635.3807058067</v>
+        <v>780457.4157594703</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.093999157774629e-06</v>
+        <v>3.18687118409717e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.24674479166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>627435.7934946149</v>
+        <v>705971.6553782485</v>
       </c>
     </row>
     <row r="5">
@@ -35542,28 +35542,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>463.457310589354</v>
+        <v>526.997638395881</v>
       </c>
       <c r="AB5" t="n">
-        <v>634.1227386418714</v>
+        <v>721.0614183481844</v>
       </c>
       <c r="AC5" t="n">
-        <v>573.6029544627438</v>
+        <v>652.2443285970895</v>
       </c>
       <c r="AD5" t="n">
-        <v>463457.310589354</v>
+        <v>526997.638395881</v>
       </c>
       <c r="AE5" t="n">
-        <v>634122.7386418714</v>
+        <v>721061.4183481843</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.161200268697422e-06</v>
+        <v>3.289144999797632e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.7421875</v>
       </c>
       <c r="AH5" t="n">
-        <v>573602.9544627438</v>
+        <v>652244.3285970895</v>
       </c>
     </row>
     <row r="6">
@@ -35648,28 +35648,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>459.2793982580216</v>
+        <v>522.8197260645485</v>
       </c>
       <c r="AB6" t="n">
-        <v>628.4063346736586</v>
+        <v>715.3450143799715</v>
       </c>
       <c r="AC6" t="n">
-        <v>568.4321160662339</v>
+        <v>647.0734902005796</v>
       </c>
       <c r="AD6" t="n">
-        <v>459279.3982580216</v>
+        <v>522819.7260645485</v>
       </c>
       <c r="AE6" t="n">
-        <v>628406.3346736586</v>
+        <v>715345.0143799715</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.16945670378747e-06</v>
+        <v>3.301710523032993e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.68033854166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>568432.116066234</v>
+        <v>647073.4902005796</v>
       </c>
     </row>
   </sheetData>
@@ -35945,28 +35945,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1116.437083995565</v>
+        <v>1214.346486485918</v>
       </c>
       <c r="AB2" t="n">
-        <v>1527.558472050724</v>
+        <v>1661.522435996012</v>
       </c>
       <c r="AC2" t="n">
-        <v>1381.770435419983</v>
+        <v>1502.949066665937</v>
       </c>
       <c r="AD2" t="n">
-        <v>1116437.083995565</v>
+        <v>1214346.486485918</v>
       </c>
       <c r="AE2" t="n">
-        <v>1527558.472050724</v>
+        <v>1661522.435996012</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.352869473579181e-06</v>
+        <v>2.019713304721397e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.21223958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1381770.435419983</v>
+        <v>1502949.066665937</v>
       </c>
     </row>
     <row r="3">
@@ -36051,28 +36051,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>712.3759879248038</v>
+        <v>785.7867269560637</v>
       </c>
       <c r="AB3" t="n">
-        <v>974.7042544892407</v>
+        <v>1075.148066285044</v>
       </c>
       <c r="AC3" t="n">
-        <v>881.6798484468002</v>
+        <v>972.5374438185873</v>
       </c>
       <c r="AD3" t="n">
-        <v>712375.9879248037</v>
+        <v>785786.7269560638</v>
       </c>
       <c r="AE3" t="n">
-        <v>974704.2544892407</v>
+        <v>1075148.066285044</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.781118821258838e-06</v>
+        <v>2.659051335580026e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.388671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>881679.8484468001</v>
+        <v>972537.4438185873</v>
       </c>
     </row>
     <row r="4">
@@ -36157,28 +36157,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>611.5358973923013</v>
+        <v>684.9465469150103</v>
       </c>
       <c r="AB4" t="n">
-        <v>836.7303938718538</v>
+        <v>937.1740831981089</v>
       </c>
       <c r="AC4" t="n">
-        <v>756.8740194392067</v>
+        <v>847.7315040297676</v>
       </c>
       <c r="AD4" t="n">
-        <v>611535.8973923014</v>
+        <v>684946.5469150103</v>
       </c>
       <c r="AE4" t="n">
-        <v>836730.3938718538</v>
+        <v>937174.0831981088</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.936983069274766e-06</v>
+        <v>2.8917427382586e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.91080729166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>756874.0194392067</v>
+        <v>847731.5040297676</v>
       </c>
     </row>
     <row r="5">
@@ -36263,28 +36263,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>569.7502546141794</v>
+        <v>634.9947724924083</v>
       </c>
       <c r="AB5" t="n">
-        <v>779.5574339703725</v>
+        <v>868.8278617163478</v>
       </c>
       <c r="AC5" t="n">
-        <v>705.1575665879697</v>
+        <v>785.9081500017014</v>
       </c>
       <c r="AD5" t="n">
-        <v>569750.2546141794</v>
+        <v>634994.7724924083</v>
       </c>
       <c r="AE5" t="n">
-        <v>779557.4339703724</v>
+        <v>868827.8617163477</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.015669862011019e-06</v>
+        <v>3.009215092612794e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.25</v>
       </c>
       <c r="AH5" t="n">
-        <v>705157.5665879697</v>
+        <v>785908.1500017014</v>
       </c>
     </row>
     <row r="6">
@@ -36369,28 +36369,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>530.0829388693464</v>
+        <v>595.4127080935959</v>
       </c>
       <c r="AB6" t="n">
-        <v>725.2828625698302</v>
+        <v>814.6699349684548</v>
       </c>
       <c r="AC6" t="n">
-        <v>656.0628841070558</v>
+        <v>736.9189797714997</v>
       </c>
       <c r="AD6" t="n">
-        <v>530082.9388693464</v>
+        <v>595412.7080935959</v>
       </c>
       <c r="AE6" t="n">
-        <v>725282.8625698301</v>
+        <v>814669.9349684548</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.067792315511504e-06</v>
+        <v>3.087029260842299e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.83984375</v>
       </c>
       <c r="AH6" t="n">
-        <v>656062.8841070557</v>
+        <v>736918.9797714998</v>
       </c>
     </row>
     <row r="7">
@@ -36475,28 +36475,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>506.5768258117806</v>
+        <v>571.90659503603</v>
       </c>
       <c r="AB7" t="n">
-        <v>693.1207616679495</v>
+        <v>782.507834066574</v>
       </c>
       <c r="AC7" t="n">
-        <v>626.9702889754584</v>
+        <v>707.8263846399022</v>
       </c>
       <c r="AD7" t="n">
-        <v>506576.8258117806</v>
+        <v>571906.59503603</v>
       </c>
       <c r="AE7" t="n">
-        <v>693120.7616679495</v>
+        <v>782507.834066574</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.100595249567794e-06</v>
+        <v>3.13600111189021e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.59244791666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>626970.2889754584</v>
+        <v>707826.3846399023</v>
       </c>
     </row>
     <row r="8">
@@ -36581,28 +36581,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>500.2893416524798</v>
+        <v>565.6191108767293</v>
       </c>
       <c r="AB8" t="n">
-        <v>684.5179484569699</v>
+        <v>773.9050208555944</v>
       </c>
       <c r="AC8" t="n">
-        <v>619.1885161832105</v>
+        <v>700.0446118476544</v>
       </c>
       <c r="AD8" t="n">
-        <v>500289.3416524798</v>
+        <v>565619.1108767294</v>
       </c>
       <c r="AE8" t="n">
-        <v>684517.9484569698</v>
+        <v>773905.0208555944</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.109349406815944e-06</v>
+        <v>3.149070286863119e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.52734375</v>
       </c>
       <c r="AH8" t="n">
-        <v>619188.5161832105</v>
+        <v>700044.6118476545</v>
       </c>
     </row>
     <row r="9">
@@ -36687,28 +36687,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>502.5738064423112</v>
+        <v>567.9035756665608</v>
       </c>
       <c r="AB9" t="n">
-        <v>687.6436539658907</v>
+        <v>777.0307263645153</v>
       </c>
       <c r="AC9" t="n">
-        <v>622.0159087453152</v>
+        <v>702.8720044097591</v>
       </c>
       <c r="AD9" t="n">
-        <v>502573.8064423112</v>
+        <v>567903.5756665608</v>
       </c>
       <c r="AE9" t="n">
-        <v>687643.6539658908</v>
+        <v>777030.7263645154</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.109349406815944e-06</v>
+        <v>3.149070286863119e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.52734375</v>
       </c>
       <c r="AH9" t="n">
-        <v>622015.9087453152</v>
+        <v>702872.0044097592</v>
       </c>
     </row>
   </sheetData>
